--- a/school.xlsx
+++ b/school.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="749">
   <si>
     <t>序号</t>
   </si>
@@ -124,114 +124,114 @@
     <t>渤海理工职业学院</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>220309732</t>
+  </si>
+  <si>
+    <t>爆米花真的皮</t>
+  </si>
+  <si>
+    <t>2021-05-09 10:18:26</t>
+  </si>
+  <si>
+    <t>南宁职业技术学院</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>220309732</t>
-  </si>
-  <si>
-    <t>爆米花真的皮</t>
-  </si>
-  <si>
-    <t>2021-05-09 10:18:26</t>
-  </si>
-  <si>
-    <t>南宁职业技术学院</t>
+    <t>86738333</t>
+  </si>
+  <si>
+    <t>空白色的样子</t>
+  </si>
+  <si>
+    <t>2021-05-09 10:21:46</t>
+  </si>
+  <si>
+    <t>亳州中药科技学校</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>86738333</t>
-  </si>
-  <si>
-    <t>空白色的样子</t>
-  </si>
-  <si>
-    <t>2021-05-09 10:21:46</t>
-  </si>
-  <si>
-    <t>亳州中药科技学校</t>
+    <t>432833042</t>
+  </si>
+  <si>
+    <t>29560854315_bili</t>
+  </si>
+  <si>
+    <t>2021-05-09 10:24:19</t>
+  </si>
+  <si>
+    <t>江西康展汽车科技学校</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>432833042</t>
-  </si>
-  <si>
-    <t>29560854315_bili</t>
-  </si>
-  <si>
-    <t>2021-05-09 10:24:19</t>
-  </si>
-  <si>
-    <t>江西康展汽车科技学校</t>
+    <t>65885420</t>
+  </si>
+  <si>
+    <t>luren0yi</t>
+  </si>
+  <si>
+    <t>2021-05-09 10:30:19</t>
+  </si>
+  <si>
+    <t>四川科技职业学院</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>65885420</t>
-  </si>
-  <si>
-    <t>luren0yi</t>
-  </si>
-  <si>
-    <t>2021-05-09 10:30:19</t>
-  </si>
-  <si>
-    <t>四川科技职业学院</t>
+    <t>247173802</t>
+  </si>
+  <si>
+    <t>白夜叉的洞爷湖</t>
+  </si>
+  <si>
+    <t>2021-05-09 10:47:46</t>
+  </si>
+  <si>
+    <t>潍坊职业技术学院</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>247173802</t>
-  </si>
-  <si>
-    <t>白夜叉的洞爷湖</t>
-  </si>
-  <si>
-    <t>2021-05-09 10:47:46</t>
-  </si>
-  <si>
-    <t>潍坊职业技术学院</t>
+    <t>473456687</t>
+  </si>
+  <si>
+    <t>Nefelibata_2020</t>
+  </si>
+  <si>
+    <t>2021-05-09 11:14:21</t>
+  </si>
+  <si>
+    <t>四川信息职业技术学院</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>473456687</t>
-  </si>
-  <si>
-    <t>Nefelibata_2020</t>
-  </si>
-  <si>
-    <t>2021-05-09 11:14:21</t>
-  </si>
-  <si>
-    <t>四川信息职业技术学院</t>
+    <t>310702441</t>
+  </si>
+  <si>
+    <t>择一幕终了</t>
+  </si>
+  <si>
+    <t>2021-05-09 11:22:49</t>
+  </si>
+  <si>
+    <t>江苏徐州技师学院</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>310702441</t>
-  </si>
-  <si>
-    <t>择一幕终了</t>
-  </si>
-  <si>
-    <t>2021-05-09 11:22:49</t>
-  </si>
-  <si>
-    <t>江苏徐州技师学院</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>5941322</t>
   </si>
   <si>
@@ -244,54 +244,54 @@
     <t>湖南涉外经济学院</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>487270465</t>
+  </si>
+  <si>
+    <t>苦命打工人啊</t>
+  </si>
+  <si>
+    <t>2021-05-09 11:43:34</t>
+  </si>
+  <si>
+    <t>苏州托普信息职业技术学院</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>487270465</t>
-  </si>
-  <si>
-    <t>苦命打工人啊</t>
-  </si>
-  <si>
-    <t>2021-05-09 11:43:34</t>
-  </si>
-  <si>
-    <t>苏州托普信息职业技术学院</t>
+    <t>19701093</t>
+  </si>
+  <si>
+    <t>消失的情感</t>
+  </si>
+  <si>
+    <t>2021-05-09 12:29:46</t>
+  </si>
+  <si>
+    <t>我发现有些人进入了一个误区，不是说有安排进厂实习的学校就是有问题，而是要看实习的情况，比如工作强度，工资待遇是否合规等，如果学校真的是按规定来安排你去实习，增加你的社会和工作经验，你这反手一波举报就搞笑了</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>19701093</t>
-  </si>
-  <si>
-    <t>消失的情感</t>
-  </si>
-  <si>
-    <t>2021-05-09 12:29:46</t>
-  </si>
-  <si>
-    <t>我发现有些人进入了一个误区，不是说有安排进厂实习的学校就是有问题，而是要看实习的情况，比如工作强度，工资待遇是否合规等，如果学校真的是按规定来安排你去实习，增加你的社会和工作经验，你这反手一波举报就搞笑了</t>
+    <t>382197130</t>
+  </si>
+  <si>
+    <t>低姿态的享受</t>
+  </si>
+  <si>
+    <t>2021-05-09 13:06:45</t>
+  </si>
+  <si>
+    <t>回复 @莫雷洛的秘典 :合肥高新科技学校</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>382197130</t>
-  </si>
-  <si>
-    <t>低姿态的享受</t>
-  </si>
-  <si>
-    <t>2021-05-09 13:06:45</t>
-  </si>
-  <si>
-    <t>回复 @莫雷洛的秘典 :合肥高新科技学校</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>20968702</t>
   </si>
   <si>
@@ -304,39 +304,39 @@
     <t>基本上都职业学院都这样。。。。</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>812486</t>
+  </si>
+  <si>
+    <t>灼眼的元首</t>
+  </si>
+  <si>
+    <t>2021-05-09 17:48:00</t>
+  </si>
+  <si>
+    <t>回复 @2个 :龙岩的农业学院也这样？</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>812486</t>
-  </si>
-  <si>
-    <t>灼眼的元首</t>
-  </si>
-  <si>
-    <t>2021-05-09 17:48:00</t>
-  </si>
-  <si>
-    <t>回复 @2个 :龙岩的农业学院也这样？</t>
+    <t>327905243</t>
+  </si>
+  <si>
+    <t>Review-Gaffes</t>
+  </si>
+  <si>
+    <t>2021-05-09 18:00:10</t>
+  </si>
+  <si>
+    <t>重庆市九龙坡职业教育中心</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>327905243</t>
-  </si>
-  <si>
-    <t>Review-Gaffes</t>
-  </si>
-  <si>
-    <t>2021-05-09 18:00:10</t>
-  </si>
-  <si>
-    <t>重庆市九龙坡职业教育中心</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>95913879</t>
   </si>
   <si>
@@ -349,18 +349,18 @@
     <t>湖南高速铁路职业技术学院</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2021-05-09 19:50:24</t>
+  </si>
+  <si>
+    <t>回复 @2个 :农业学院也有非农业专业？</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
-    <t>2021-05-09 19:50:24</t>
-  </si>
-  <si>
-    <t>回复 @2个 :农业学院也有非农业专业？</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>11530932</t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>广东环境保护工程职业学院</t>
   </si>
   <si>
-    <t>33</t>
+    <t>32</t>
   </si>
   <si>
     <t>36801037</t>
@@ -388,24 +388,24 @@
     <t>常德鸿志职业技术学校</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>23328568</t>
+  </si>
+  <si>
+    <t>君莫紫</t>
+  </si>
+  <si>
+    <t>2021-05-09 22:14:31</t>
+  </si>
+  <si>
+    <t>洛阳科技职业学院</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
-    <t>23328568</t>
-  </si>
-  <si>
-    <t>君莫紫</t>
-  </si>
-  <si>
-    <t>2021-05-09 22:14:31</t>
-  </si>
-  <si>
-    <t>洛阳科技职业学院</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>20200564</t>
   </si>
   <si>
@@ -418,7 +418,7 @@
     <t>江南理工学院</t>
   </si>
   <si>
-    <t>38</t>
+    <t>37</t>
   </si>
   <si>
     <t>382297424</t>
@@ -433,52 +433,52 @@
     <t>福建省飞毛腿技师学院</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43817524</t>
+  </si>
+  <si>
+    <t>不太快乐水</t>
+  </si>
+  <si>
+    <t>2021-05-09 22:35:25</t>
+  </si>
+  <si>
+    <t>江西应用科技学院[微笑]</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
-    <t>43817524</t>
-  </si>
-  <si>
-    <t>不太快乐水</t>
-  </si>
-  <si>
-    <t>2021-05-09 22:35:25</t>
-  </si>
-  <si>
-    <t>江西应用科技学院[微笑]</t>
+    <t>445774265</t>
+  </si>
+  <si>
+    <t>__星海</t>
+  </si>
+  <si>
+    <t>2021-05-09 22:35:33</t>
+  </si>
+  <si>
+    <t>回复 @消失的情感 :实话告诉你专业工厂里都是十个小时工作时间，白班夜班交替上，一周上七天除了停产和请假以外没有假，请假？谁给你的假不上就是旷工。工资一小时16元（学校强制性实习）社会工（中介去的）一小时25元。某师傅品牌方便面厂实习生亲身经历！！！</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>445774265</t>
-  </si>
-  <si>
-    <t>__星海</t>
-  </si>
-  <si>
-    <t>2021-05-09 22:35:33</t>
-  </si>
-  <si>
-    <t>回复 @消失的情感 :实话告诉你专业工厂里都是十个小时工作时间，白班夜班交替上，一周上七天除了停产和请假以外没有假，请假？谁给你的假不上就是旷工。工资一小时16元（学校强制性实习）社会工（中介去的）一小时25元。某师傅品牌方便面厂实习生亲身经历！！！</t>
+    <t>279636497</t>
+  </si>
+  <si>
+    <t>看到我请催我去学习I</t>
+  </si>
+  <si>
+    <t>2021-05-09 22:43:17</t>
+  </si>
+  <si>
+    <t>肇庆工业贸易学校</t>
   </si>
   <si>
     <t>43</t>
-  </si>
-  <si>
-    <t>279636497</t>
-  </si>
-  <si>
-    <t>看到我请催我去学习I</t>
-  </si>
-  <si>
-    <t>2021-05-09 22:43:17</t>
-  </si>
-  <si>
-    <t>肇庆工业贸易学校</t>
-  </si>
-  <si>
-    <t>44</t>
   </si>
   <si>
     <t>61940844</t>
@@ -494,24 +494,24 @@
 广西理工职业技术学校</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>404512406</t>
+  </si>
+  <si>
+    <t>BB的我无敌</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:13:15</t>
+  </si>
+  <si>
+    <t>广西梧州市工商技师学院，前称：广西梧州市经贸学校</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
-    <t>404512406</t>
-  </si>
-  <si>
-    <t>BB的我无敌</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:13:15</t>
-  </si>
-  <si>
-    <t>广西梧州市工商技师学院，前称：广西梧州市经贸学校</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>94547074</t>
   </si>
   <si>
@@ -524,24 +524,24 @@
     <t>武汉工程职业技术学院，模具设计与制造</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>258079624</t>
+  </si>
+  <si>
+    <t>无人之岛an</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:14:11</t>
+  </si>
+  <si>
+    <t>台州科技职业学院[微笑]</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
-    <t>258079624</t>
-  </si>
-  <si>
-    <t>无人之岛an</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:14:11</t>
-  </si>
-  <si>
-    <t>台州科技职业学院[微笑]</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>39081564</t>
   </si>
   <si>
@@ -554,99 +554,99 @@
     <t>山东信息职业技术学院</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>77467513</t>
+  </si>
+  <si>
+    <t>嘿咻不咻</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:25:24</t>
+  </si>
+  <si>
+    <t>湖北轻工职业技术学院</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
-    <t>77467513</t>
-  </si>
-  <si>
-    <t>嘿咻不咻</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:25:24</t>
-  </si>
-  <si>
-    <t>湖北轻工职业技术学院</t>
+    <t>424467280</t>
+  </si>
+  <si>
+    <t>一个严肃的复读稽</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:29:50</t>
+  </si>
+  <si>
+    <t>回复 @啊咩哦鸭 :问一下，那个学校是所有专业都这样吗</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>424467280</t>
-  </si>
-  <si>
-    <t>一个严肃的复读稽</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:29:50</t>
-  </si>
-  <si>
-    <t>回复 @啊咩哦鸭 :问一下，那个学校是所有专业都这样吗</t>
+    <t>243862855</t>
+  </si>
+  <si>
+    <t>白昼梦的轻写真</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:37:28</t>
+  </si>
+  <si>
+    <t>青岛求实职业技术学院</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>243862855</t>
-  </si>
-  <si>
-    <t>白昼梦的轻写真</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:37:28</t>
-  </si>
-  <si>
-    <t>青岛求实职业技术学院</t>
+    <t>268446722</t>
+  </si>
+  <si>
+    <t>山高水深剑气近</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:41:23</t>
+  </si>
+  <si>
+    <t>重庆铁路运输技师学院</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>268446722</t>
-  </si>
-  <si>
-    <t>山高水深剑气近</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:41:23</t>
-  </si>
-  <si>
-    <t>重庆铁路运输技师学院</t>
+    <t>18291479</t>
+  </si>
+  <si>
+    <t>树懒想奋斗</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:56:38</t>
+  </si>
+  <si>
+    <t>回复 @爆米花真的皮 :卧槽真的假的，当年第一志愿就报的这个学院，这么说当年真是庆幸第二志愿的学校把我捡走了[囧]</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>18291479</t>
-  </si>
-  <si>
-    <t>树懒想奋斗</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:56:38</t>
-  </si>
-  <si>
-    <t>回复 @爆米花真的皮 :卧槽真的假的，当年第一志愿就报的这个学院，这么说当年真是庆幸第二志愿的学校把我捡走了[囧]</t>
+    <t>36255103</t>
+  </si>
+  <si>
+    <t>NZL陨石</t>
+  </si>
+  <si>
+    <t>2021-05-09 23:58:17</t>
+  </si>
+  <si>
+    <t>太原工业学院</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>36255103</t>
-  </si>
-  <si>
-    <t>NZL陨石</t>
-  </si>
-  <si>
-    <t>2021-05-09 23:58:17</t>
-  </si>
-  <si>
-    <t>太原工业学院</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>363829251</t>
   </si>
   <si>
@@ -659,48 +659,48 @@
     <t>湖南交通工程学院</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>292066679</t>
+  </si>
+  <si>
+    <t>俊临天下君</t>
+  </si>
+  <si>
+    <t>2021-05-10 00:54:08</t>
+  </si>
+  <si>
+    <t>回复 @虚空先知_玛尔扎哈 :这个学校函授本科怎么样？</t>
+  </si>
+  <si>
     <t>63</t>
   </si>
   <si>
-    <t>292066679</t>
-  </si>
-  <si>
-    <t>俊临天下君</t>
-  </si>
-  <si>
-    <t>2021-05-10 00:54:08</t>
-  </si>
-  <si>
-    <t>回复 @虚空先知_玛尔扎哈 :这个学校函授本科怎么样？</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>2021-05-10 00:57:09</t>
   </si>
   <si>
     <t>回复 @俊临天下君 :不是很清楚[笑哭]我兄弟在这破学校，最近天天跟我们说他要被派厂里去拧螺丝了</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>36266115</t>
+  </si>
+  <si>
+    <t>寒松呀</t>
+  </si>
+  <si>
+    <t>2021-05-10 06:50:46</t>
+  </si>
+  <si>
+    <t>重庆黔江职业技术学院</t>
+  </si>
+  <si>
     <t>67</t>
   </si>
   <si>
-    <t>36266115</t>
-  </si>
-  <si>
-    <t>寒松呀</t>
-  </si>
-  <si>
-    <t>2021-05-10 06:50:46</t>
-  </si>
-  <si>
-    <t>重庆黔江职业技术学院</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>350702702</t>
   </si>
   <si>
@@ -713,87 +713,87 @@
     <t>湖南常德桃源创才科技学校</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>287114530</t>
+  </si>
+  <si>
+    <t>呢莫专业的</t>
+  </si>
+  <si>
+    <t>2021-05-10 09:52:55</t>
+  </si>
+  <si>
+    <t>漯河技师学院</t>
+  </si>
+  <si>
     <t>74</t>
   </si>
   <si>
-    <t>287114530</t>
-  </si>
-  <si>
-    <t>呢莫专业的</t>
-  </si>
-  <si>
-    <t>2021-05-10 09:52:55</t>
-  </si>
-  <si>
-    <t>漯河技师学院</t>
+    <t>2021-05-10 09:58:22</t>
+  </si>
+  <si>
+    <t>潍坊工程技师学院</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>2021-05-10 09:58:22</t>
-  </si>
-  <si>
-    <t>潍坊工程技师学院</t>
+    <t>37001444</t>
+  </si>
+  <si>
+    <t>不想当欧皇的欧皇</t>
+  </si>
+  <si>
+    <t>2021-05-10 10:05:47</t>
+  </si>
+  <si>
+    <t>郑州电力职业技术学校</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>37001444</t>
-  </si>
-  <si>
-    <t>不想当欧皇的欧皇</t>
-  </si>
-  <si>
-    <t>2021-05-10 10:05:47</t>
-  </si>
-  <si>
-    <t>郑州电力职业技术学校</t>
+    <t>27486210</t>
+  </si>
+  <si>
+    <t>友网心热</t>
+  </si>
+  <si>
+    <t>2021-05-10 10:06:57</t>
+  </si>
+  <si>
+    <t>肇庆科技中等职业学校</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>27486210</t>
-  </si>
-  <si>
-    <t>友网心热</t>
-  </si>
-  <si>
-    <t>2021-05-10 10:06:57</t>
-  </si>
-  <si>
-    <t>肇庆科技中等职业学校</t>
+    <t>2021-05-10 10:09:04</t>
+  </si>
+  <si>
+    <t>实习的时候被宿舍的虫子咬的，不在去学校了</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>2021-05-10 10:09:04</t>
-  </si>
-  <si>
-    <t>实习的时候被宿舍的虫子咬的，不在去学校了</t>
+    <t>241237858</t>
+  </si>
+  <si>
+    <t>想要坠入深海</t>
+  </si>
+  <si>
+    <t>2021-05-10 10:26:01</t>
+  </si>
+  <si>
+    <t>江西科汇技术学院</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>241237858</t>
-  </si>
-  <si>
-    <t>想要坠入深海</t>
-  </si>
-  <si>
-    <t>2021-05-10 10:26:01</t>
-  </si>
-  <si>
-    <t>江西科汇技术学院</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>221784266</t>
   </si>
   <si>
@@ -806,7 +806,7 @@
     <t>邻水职业技术学校</t>
   </si>
   <si>
-    <t>82</t>
+    <t>81</t>
   </si>
   <si>
     <t>213851511</t>
@@ -821,114 +821,114 @@
     <t>这不很正常，我们一实习就是三个月，还与自己所学的职业无关，工资与员工相差7到9元（干工1小时） ，每天8点到早上8点，夜班连上，三个月没放过假，没有假期，我当时作完三个月感觉自己都不是人了，要不是为了毕业证，我上的学校叫重庆市聚英技工学校，上班的吸血厂叫重庆莱宝科技有限公司[哭泣]</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>95789351</t>
+  </si>
+  <si>
+    <t>好喜欢自己</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:04:49</t>
+  </si>
+  <si>
+    <t>达州华南理工职业技术学校</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
-    <t>95789351</t>
-  </si>
-  <si>
-    <t>好喜欢自己</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:04:49</t>
-  </si>
-  <si>
-    <t>达州华南理工职业技术学校</t>
+    <t>408672342</t>
+  </si>
+  <si>
+    <t>吃花菜的汪酱</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:17:35</t>
+  </si>
+  <si>
+    <t>河南省工业和信息化高级技工学校</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>408672342</t>
-  </si>
-  <si>
-    <t>吃花菜的汪酱</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:17:35</t>
-  </si>
-  <si>
-    <t>河南省工业和信息化高级技工学校</t>
+    <t>88833619</t>
+  </si>
+  <si>
+    <t>我的妹妹是黃漫老师</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:23:30</t>
+  </si>
+  <si>
+    <t>广西交通技师学院</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>88833619</t>
-  </si>
-  <si>
-    <t>我的妹妹是黃漫老师</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:23:30</t>
-  </si>
-  <si>
-    <t>广西交通技师学院</t>
+    <t>35665454</t>
+  </si>
+  <si>
+    <t>啊形形23333</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:23:42</t>
+  </si>
+  <si>
+    <t>河源技师学院</t>
   </si>
   <si>
     <t>87</t>
   </si>
   <si>
-    <t>35665454</t>
-  </si>
-  <si>
-    <t>啊形形23333</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:23:42</t>
-  </si>
-  <si>
-    <t>河源技师学院</t>
+    <t>288615216</t>
+  </si>
+  <si>
+    <t>洛言澪</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:25:11</t>
+  </si>
+  <si>
+    <t>云南商务职业学院[无语]</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>288615216</t>
-  </si>
-  <si>
-    <t>洛言澪</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:25:11</t>
-  </si>
-  <si>
-    <t>云南商务职业学院[无语]</t>
+    <t>35622511</t>
+  </si>
+  <si>
+    <t>聋哑毕业天山星泰罗</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:28:07</t>
+  </si>
+  <si>
+    <t>广西工程职业学院</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>35622511</t>
-  </si>
-  <si>
-    <t>聋哑毕业天山星泰罗</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:28:07</t>
-  </si>
-  <si>
-    <t>广西工程职业学院</t>
+    <t>365147295</t>
+  </si>
+  <si>
+    <t>琦妙怪儿</t>
+  </si>
+  <si>
+    <t>2021-05-10 12:23:44</t>
+  </si>
+  <si>
+    <t>新乡技师学院</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>365147295</t>
-  </si>
-  <si>
-    <t>琦妙怪儿</t>
-  </si>
-  <si>
-    <t>2021-05-10 12:23:44</t>
-  </si>
-  <si>
-    <t>新乡技师学院</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>1430550625</t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <t>2021-05-10 12:26:24</t>
   </si>
   <si>
-    <t>95</t>
+    <t>94</t>
   </si>
   <si>
     <t>247746706</t>
@@ -953,24 +953,24 @@
     <t>河南机电职业学院</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>195523405</t>
+  </si>
+  <si>
+    <t>輕如纸張</t>
+  </si>
+  <si>
+    <t>2021-05-10 13:16:04</t>
+  </si>
+  <si>
+    <t>浦城职业技术学校</t>
+  </si>
+  <si>
     <t>97</t>
   </si>
   <si>
-    <t>195523405</t>
-  </si>
-  <si>
-    <t>輕如纸張</t>
-  </si>
-  <si>
-    <t>2021-05-10 13:16:04</t>
-  </si>
-  <si>
-    <t>浦城职业技术学校</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>109343594</t>
   </si>
   <si>
@@ -983,114 +983,114 @@
     <t>河南南阳经济管理学院</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>295941696</t>
+  </si>
+  <si>
+    <t>反手就是壹脚</t>
+  </si>
+  <si>
+    <t>2021-05-10 13:34:29</t>
+  </si>
+  <si>
+    <t>咸阳职业技术学校</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>295941696</t>
-  </si>
-  <si>
-    <t>反手就是壹脚</t>
-  </si>
-  <si>
-    <t>2021-05-10 13:34:29</t>
-  </si>
-  <si>
-    <t>咸阳职业技术学校</t>
+    <t>25726377</t>
+  </si>
+  <si>
+    <t>与我无瓜子</t>
+  </si>
+  <si>
+    <t>2021-05-10 13:49:10</t>
+  </si>
+  <si>
+    <t>成都机电工程学院</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>25726377</t>
-  </si>
-  <si>
-    <t>与我无瓜子</t>
-  </si>
-  <si>
-    <t>2021-05-10 13:49:10</t>
-  </si>
-  <si>
-    <t>成都机电工程学院</t>
+    <t>474595187</t>
+  </si>
+  <si>
+    <t>不知道改要啥昵称</t>
+  </si>
+  <si>
+    <t>2021-05-10 14:17:50</t>
+  </si>
+  <si>
+    <t>商丘职业技术学院</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>474595187</t>
-  </si>
-  <si>
-    <t>不知道改要啥昵称</t>
-  </si>
-  <si>
-    <t>2021-05-10 14:17:50</t>
-  </si>
-  <si>
-    <t>商丘职业技术学院</t>
+    <t>103370003</t>
+  </si>
+  <si>
+    <t>我摊牌了我是伞兵</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:11:01</t>
+  </si>
+  <si>
+    <t>保定职业技术学院</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>103370003</t>
-  </si>
-  <si>
-    <t>我摊牌了我是伞兵</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:11:01</t>
-  </si>
-  <si>
-    <t>保定职业技术学院</t>
+    <t>690216371</t>
+  </si>
+  <si>
+    <t>洛之半心</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:34:56</t>
+  </si>
+  <si>
+    <t>六安职业技术学院</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>690216371</t>
-  </si>
-  <si>
-    <t>洛之半心</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:34:56</t>
-  </si>
-  <si>
-    <t>六安职业技术学院</t>
+    <t>285073226</t>
+  </si>
+  <si>
+    <t>我是不是黄瓜</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:36:46</t>
+  </si>
+  <si>
+    <t>大新县职业技术学校</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>285073226</t>
-  </si>
-  <si>
-    <t>我是不是黄瓜</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:36:46</t>
-  </si>
-  <si>
-    <t>大新县职业技术学校</t>
+    <t>353247720</t>
+  </si>
+  <si>
+    <t>灰屑之魔女--伊蕾娜</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:40:31</t>
+  </si>
+  <si>
+    <t>(湖北)恩施职业技术学院。中专</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>353247720</t>
-  </si>
-  <si>
-    <t>灰屑之魔女--伊蕾娜</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:40:31</t>
-  </si>
-  <si>
-    <t>(湖北)恩施职业技术学院。中专</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>473640875</t>
   </si>
   <si>
@@ -1103,36 +1103,36 @@
     <t>这么多学校吗？[辣眼睛][大哭][大哭][大哭]</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>363167851</t>
+  </si>
+  <si>
+    <t>隙间的风</t>
+  </si>
+  <si>
+    <t>2021-05-10 17:19:41</t>
+  </si>
+  <si>
+    <t>榆林能源化工职业技术学校</t>
+  </si>
+  <si>
     <t>109</t>
   </si>
   <si>
-    <t>363167851</t>
-  </si>
-  <si>
-    <t>隙间的风</t>
-  </si>
-  <si>
-    <t>2021-05-10 17:19:41</t>
-  </si>
-  <si>
-    <t>榆林能源化工职业技术学校</t>
+    <t>369532692</t>
+  </si>
+  <si>
+    <t>小屋木雨</t>
+  </si>
+  <si>
+    <t>2021-05-10 17:21:52</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>369532692</t>
-  </si>
-  <si>
-    <t>小屋木雨</t>
-  </si>
-  <si>
-    <t>2021-05-10 17:21:52</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>453290645</t>
   </si>
   <si>
@@ -1145,21 +1145,21 @@
     <t>灵璧县高级职业技术学校</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>28956581</t>
+  </si>
+  <si>
+    <t>橘遥----</t>
+  </si>
+  <si>
+    <t>2021-05-10 18:26:30</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>28956581</t>
-  </si>
-  <si>
-    <t>橘遥----</t>
-  </si>
-  <si>
-    <t>2021-05-10 18:26:30</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>248909094</t>
   </si>
   <si>
@@ -1172,54 +1172,54 @@
     <t>威海职业学院</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>88165150</t>
+  </si>
+  <si>
+    <t>秋恋殇别</t>
+  </si>
+  <si>
+    <t>2021-05-10 20:03:06</t>
+  </si>
+  <si>
+    <t>黑龙江职业学院的有没有</t>
+  </si>
+  <si>
     <t>116</t>
   </si>
   <si>
-    <t>88165150</t>
-  </si>
-  <si>
-    <t>秋恋殇别</t>
-  </si>
-  <si>
-    <t>2021-05-10 20:03:06</t>
-  </si>
-  <si>
-    <t>黑龙江职业学院的有没有</t>
+    <t>315631288</t>
+  </si>
+  <si>
+    <t>L丶mperial</t>
+  </si>
+  <si>
+    <t>2021-05-10 20:27:32</t>
+  </si>
+  <si>
+    <t>连云港职业技术学院</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>315631288</t>
-  </si>
-  <si>
-    <t>L丶mperial</t>
-  </si>
-  <si>
-    <t>2021-05-10 20:27:32</t>
-  </si>
-  <si>
-    <t>连云港职业技术学院</t>
+    <t>440025406</t>
+  </si>
+  <si>
+    <t>sakura---酱</t>
+  </si>
+  <si>
+    <t>2021-05-10 20:34:32</t>
+  </si>
+  <si>
+    <t>临海市华海技术学校</t>
   </si>
   <si>
     <t>118</t>
   </si>
   <si>
-    <t>440025406</t>
-  </si>
-  <si>
-    <t>sakura---酱</t>
-  </si>
-  <si>
-    <t>2021-05-10 20:34:32</t>
-  </si>
-  <si>
-    <t>临海市华海技术学校</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>225565791</t>
   </si>
   <si>
@@ -1229,31 +1229,31 @@
     <t>2021-05-10 20:36:06</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>27975130</t>
+  </si>
+  <si>
+    <t>我是宋书航</t>
+  </si>
+  <si>
+    <t>2021-05-10 21:45:30</t>
+  </si>
+  <si>
+    <t>石河子职业技术学院</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>27975130</t>
-  </si>
-  <si>
-    <t>我是宋书航</t>
-  </si>
-  <si>
-    <t>2021-05-10 21:45:30</t>
-  </si>
-  <si>
-    <t>石河子职业技术学院</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>2021-05-10 21:45:56</t>
   </si>
   <si>
     <t>石河子职业技术学院 求曝光</t>
   </si>
   <si>
-    <t>126</t>
+    <t>125</t>
   </si>
   <si>
     <t>302435968</t>
@@ -1268,7 +1268,7 @@
     <t>现代商贸技工学校</t>
   </si>
   <si>
-    <t>130</t>
+    <t>129</t>
   </si>
   <si>
     <t>42286590</t>
@@ -1283,37 +1283,37 @@
     <t>江西机电职业技术学院</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>45239556</t>
+  </si>
+  <si>
+    <t>音羽結弦</t>
+  </si>
+  <si>
+    <t>2021-05-10 23:22:51</t>
+  </si>
+  <si>
+    <t>开封技师学院</t>
+  </si>
+  <si>
     <t>133</t>
   </si>
   <si>
-    <t>45239556</t>
-  </si>
-  <si>
-    <t>音羽結弦</t>
-  </si>
-  <si>
-    <t>2021-05-10 23:22:51</t>
-  </si>
-  <si>
-    <t>开封技师学院</t>
+    <t>39686959</t>
+  </si>
+  <si>
+    <t>圣天魔酷</t>
+  </si>
+  <si>
+    <t>2021-05-10 23:34:52</t>
+  </si>
+  <si>
+    <t>回复 @__星海 :同十二小时，一小时9块多[嗑瓜子]我们学校老牛逼了</t>
   </si>
   <si>
     <t>134</t>
-  </si>
-  <si>
-    <t>39686959</t>
-  </si>
-  <si>
-    <t>圣天魔酷</t>
-  </si>
-  <si>
-    <t>2021-05-10 23:34:52</t>
-  </si>
-  <si>
-    <t>回复 @__星海 :同十二小时，一小时9块多[嗑瓜子]我们学校老牛逼了</t>
-  </si>
-  <si>
-    <t>135</t>
   </si>
   <si>
     <t>168670992</t>
@@ -1329,7 +1329,7 @@
 不是类似，是确确实实每年都会把毕业生麦厂里去三四个月，压毕业证。[无语]</t>
   </si>
   <si>
-    <t>136</t>
+    <t>135</t>
   </si>
   <si>
     <t>388092696</t>
@@ -1344,7 +1344,7 @@
     <t>武进职业教育中心校</t>
   </si>
   <si>
-    <t>138</t>
+    <t>137</t>
   </si>
   <si>
     <t>290572325</t>
@@ -1359,16 +1359,16 @@
     <t>漳州理工职业学院</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>2021-05-11 07:55:07</t>
+  </si>
+  <si>
+    <t>回复 @言与不言 :智能制造学院(以前叫机电学院)除了汽修还是汽营那个专业不用去，其他全都得去</t>
+  </si>
+  <si>
     <t>141</t>
-  </si>
-  <si>
-    <t>2021-05-11 07:55:07</t>
-  </si>
-  <si>
-    <t>回复 @言与不言 :智能制造学院(以前叫机电学院)除了汽修还是汽营那个专业不用去，其他全都得去</t>
-  </si>
-  <si>
-    <t>142</t>
   </si>
   <si>
     <t>48971686</t>
@@ -1386,7 +1386,7 @@
 如果没有就算了</t>
   </si>
   <si>
-    <t>143</t>
+    <t>142</t>
   </si>
   <si>
     <t>34255425</t>
@@ -1402,39 +1402,39 @@
 渤海理工职业学院</t>
   </si>
   <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>43656522</t>
+  </si>
+  <si>
+    <t>转身灬淚成</t>
+  </si>
+  <si>
+    <t>2021-05-11 11:43:21</t>
+  </si>
+  <si>
+    <t>宜阳县职业教育中心</t>
+  </si>
+  <si>
     <t>145</t>
   </si>
   <si>
-    <t>43656522</t>
-  </si>
-  <si>
-    <t>转身灬淚成</t>
-  </si>
-  <si>
-    <t>2021-05-11 11:43:21</t>
-  </si>
-  <si>
-    <t>宜阳县职业教育中心</t>
+    <t>117536178</t>
+  </si>
+  <si>
+    <t>桃花改</t>
+  </si>
+  <si>
+    <t>2021-05-11 12:21:56</t>
+  </si>
+  <si>
+    <t>四川城市职业学院</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>117536178</t>
-  </si>
-  <si>
-    <t>桃花改</t>
-  </si>
-  <si>
-    <t>2021-05-11 12:21:56</t>
-  </si>
-  <si>
-    <t>四川城市职业学院</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
     <t>178961871</t>
   </si>
   <si>
@@ -1447,7 +1447,7 @@
     <t>吴汉良理工学校</t>
   </si>
   <si>
-    <t>149</t>
+    <t>148</t>
   </si>
   <si>
     <t>400643716</t>
@@ -1462,7 +1462,7 @@
     <t>兰州职业技术学院</t>
   </si>
   <si>
-    <t>153</t>
+    <t>152</t>
   </si>
   <si>
     <t>351534815</t>
@@ -1477,7 +1477,7 @@
     <t>河南机电职业技术学校</t>
   </si>
   <si>
-    <t>155</t>
+    <t>154</t>
   </si>
   <si>
     <t>354787259</t>
@@ -1489,24 +1489,24 @@
     <t>2021-05-12 10:16:42</t>
   </si>
   <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>94002204</t>
+  </si>
+  <si>
+    <t>轻提如梦</t>
+  </si>
+  <si>
+    <t>2021-05-12 18:38:01</t>
+  </si>
+  <si>
+    <t>安徽电子信息职业技术学院，评论不要消失啊啊啊！</t>
+  </si>
+  <si>
     <t>157</t>
   </si>
   <si>
-    <t>94002204</t>
-  </si>
-  <si>
-    <t>轻提如梦</t>
-  </si>
-  <si>
-    <t>2021-05-12 18:38:01</t>
-  </si>
-  <si>
-    <t>安徽电子信息职业技术学院，评论不要消失啊啊啊！</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
     <t>249478058</t>
   </si>
   <si>
@@ -1588,33 +1588,33 @@
     <t>回复 @轻提如梦 :问下阁下，这个学校是哪个地方的？太和？[喜极而泣]</t>
   </si>
   <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>2021-05-18 10:55:51</t>
+  </si>
+  <si>
+    <t>回复 @风花雪月232 :安徽电子信息职业技术学院是在安徽省蚌埠市，评论不要再消失啦ヽ(≧Д≦)ノ！</t>
+  </si>
+  <si>
     <t>171</t>
   </si>
   <si>
-    <t>2021-05-18 10:55:51</t>
-  </si>
-  <si>
-    <t>回复 @风花雪月232 :安徽电子信息职业技术学院是在安徽省蚌埠市，评论不要再消失啦ヽ(≧Д≦)ノ！</t>
+    <t>374786242</t>
+  </si>
+  <si>
+    <t>Bili_374786242</t>
+  </si>
+  <si>
+    <t>2021-05-18 11:10:28</t>
+  </si>
+  <si>
+    <t>回复 @爆米花真的皮 :震惊！我广西中医药毕业3年了，除了回家实习的1年，待在南宁4年从来不知道还有你这学校</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>374786242</t>
-  </si>
-  <si>
-    <t>Bili_374786242</t>
-  </si>
-  <si>
-    <t>2021-05-18 11:10:28</t>
-  </si>
-  <si>
-    <t>回复 @爆米花真的皮 :震惊！我广西中医药毕业3年了，除了回家实习的1年，待在南宁4年从来不知道还有你这学校</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
     <t>277011736</t>
   </si>
   <si>
@@ -1627,7 +1627,7 @@
     <t>郑州电子信息职业技术学院</t>
   </si>
   <si>
-    <t>175</t>
+    <t>174</t>
   </si>
   <si>
     <t>396077270</t>
@@ -1642,126 +1642,126 @@
     <t>回复 @呢莫专业的 :哈哈哈哈哈哈哈哈个一个月学校的，这个星期实习去了还好我跑了</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>477004430</t>
+  </si>
+  <si>
+    <t>HHeeeee何</t>
+  </si>
+  <si>
+    <t>2021-05-18 21:46:11</t>
+  </si>
+  <si>
+    <t>永新职业技术学校</t>
+  </si>
+  <si>
     <t>177</t>
   </si>
   <si>
-    <t>477004430</t>
-  </si>
-  <si>
-    <t>HHeeeee何</t>
-  </si>
-  <si>
-    <t>2021-05-18 21:46:11</t>
-  </si>
-  <si>
-    <t>永新职业技术学校</t>
+    <t>290881250</t>
+  </si>
+  <si>
+    <t>zrezw</t>
+  </si>
+  <si>
+    <t>2021-05-18 23:12:38</t>
   </si>
   <si>
     <t>178</t>
   </si>
   <si>
-    <t>290881250</t>
-  </si>
-  <si>
-    <t>zrezw</t>
-  </si>
-  <si>
-    <t>2021-05-18 23:12:38</t>
+    <t>473885143</t>
+  </si>
+  <si>
+    <t>司马老猪</t>
+  </si>
+  <si>
+    <t>2021-05-19 04:32:35</t>
+  </si>
+  <si>
+    <t>广西梧州农业学校</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>473885143</t>
-  </si>
-  <si>
-    <t>司马老猪</t>
-  </si>
-  <si>
-    <t>2021-05-19 04:32:35</t>
-  </si>
-  <si>
-    <t>广西梧州农业学校</t>
+    <t>44653527</t>
+  </si>
+  <si>
+    <t>再见了星河</t>
+  </si>
+  <si>
+    <t>2021-05-19 05:39:01</t>
+  </si>
+  <si>
+    <t>余庆职业中学</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>44653527</t>
-  </si>
-  <si>
-    <t>再见了星河</t>
-  </si>
-  <si>
-    <t>2021-05-19 05:39:01</t>
-  </si>
-  <si>
-    <t>余庆职业中学</t>
+    <t>388067365</t>
+  </si>
+  <si>
+    <t>48101460145_bili</t>
+  </si>
+  <si>
+    <t>2021-05-19 07:03:56</t>
+  </si>
+  <si>
+    <t>江西省赣州市育才职业技术学院</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>388067365</t>
-  </si>
-  <si>
-    <t>48101460145_bili</t>
-  </si>
-  <si>
-    <t>2021-05-19 07:03:56</t>
-  </si>
-  <si>
-    <t>江西省赣州市育才职业技术学院</t>
+    <t>255952302</t>
+  </si>
+  <si>
+    <t>杨志放</t>
+  </si>
+  <si>
+    <t>2021-05-19 12:25:04</t>
+  </si>
+  <si>
+    <t>德阳电子科技学校</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>255952302</t>
-  </si>
-  <si>
-    <t>杨志放</t>
-  </si>
-  <si>
-    <t>2021-05-19 12:25:04</t>
-  </si>
-  <si>
-    <t>德阳电子科技学校</t>
+    <t>260583002</t>
+  </si>
+  <si>
+    <t>biiliibiiiii</t>
+  </si>
+  <si>
+    <t>2021-05-19 15:51:44</t>
+  </si>
+  <si>
+    <t>你应该收集不这么干的学校</t>
   </si>
   <si>
     <t>183</t>
   </si>
   <si>
-    <t>260583002</t>
-  </si>
-  <si>
-    <t>biiliibiiiii</t>
-  </si>
-  <si>
-    <t>2021-05-19 15:51:44</t>
-  </si>
-  <si>
-    <t>你应该收集不这么干的学校</t>
+    <t>385721207</t>
+  </si>
+  <si>
+    <t>我为少爷氪过金</t>
+  </si>
+  <si>
+    <t>2021-05-19 20:01:47</t>
+  </si>
+  <si>
+    <t>回复 @干饭睡觉长得骠 :？！我填了这个学校志愿[热词系列_知识增加]</t>
   </si>
   <si>
     <t>184</t>
   </si>
   <si>
-    <t>385721207</t>
-  </si>
-  <si>
-    <t>我为少爷氪过金</t>
-  </si>
-  <si>
-    <t>2021-05-19 20:01:47</t>
-  </si>
-  <si>
-    <t>回复 @干饭睡觉长得骠 :？！我填了这个学校志愿[热词系列_知识增加]</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
     <t>320258229</t>
   </si>
   <si>
@@ -1774,13 +1774,13 @@
     <t>永州职业技术学院</t>
   </si>
   <si>
-    <t>189</t>
+    <t>188</t>
   </si>
   <si>
     <t>337386662</t>
   </si>
   <si>
-    <t>哎似你哟</t>
+    <t>町枝枝你好呀</t>
   </si>
   <si>
     <t>2021-05-20 11:50:26</t>
@@ -1789,7 +1789,7 @@
     <t>四川职业技术学院</t>
   </si>
   <si>
-    <t>191</t>
+    <t>190</t>
   </si>
   <si>
     <t>122452495</t>
@@ -1801,39 +1801,39 @@
     <t>2021-05-20 12:56:47</t>
   </si>
   <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>389067269</t>
+  </si>
+  <si>
+    <t>痕忆mosda</t>
+  </si>
+  <si>
+    <t>2021-05-21 08:47:53</t>
+  </si>
+  <si>
+    <t>广西机电技师学院</t>
+  </si>
+  <si>
     <t>193</t>
   </si>
   <si>
-    <t>389067269</t>
-  </si>
-  <si>
-    <t>痕忆mosda</t>
-  </si>
-  <si>
-    <t>2021-05-21 08:47:53</t>
-  </si>
-  <si>
-    <t>广西机电技师学院</t>
+    <t>399746710</t>
+  </si>
+  <si>
+    <t>梓曦瞳</t>
+  </si>
+  <si>
+    <t>2021-05-21 16:16:36</t>
+  </si>
+  <si>
+    <t>黄冈职业技术学院</t>
   </si>
   <si>
     <t>194</t>
   </si>
   <si>
-    <t>399746710</t>
-  </si>
-  <si>
-    <t>梓曦瞳</t>
-  </si>
-  <si>
-    <t>2021-05-21 16:16:36</t>
-  </si>
-  <si>
-    <t>黄冈职业技术学院</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
     <t>490837045</t>
   </si>
   <si>
@@ -1846,7 +1846,7 @@
     <t>昌吉州职业技术学院</t>
   </si>
   <si>
-    <t>197</t>
+    <t>196</t>
   </si>
   <si>
     <t>357743648</t>
@@ -1861,7 +1861,7 @@
     <t>东莞南华职业技术学校[微笑]</t>
   </si>
   <si>
-    <t>199</t>
+    <t>198</t>
   </si>
   <si>
     <t>397611541</t>
@@ -1876,39 +1876,39 @@
     <t>廉江兴华职业技术学习</t>
   </si>
   <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>20156879</t>
+  </si>
+  <si>
+    <t>邪王契约使</t>
+  </si>
+  <si>
+    <t>2021-05-22 18:02:02</t>
+  </si>
+  <si>
+    <t>韶关市技师学院</t>
+  </si>
+  <si>
     <t>202</t>
   </si>
   <si>
-    <t>20156879</t>
-  </si>
-  <si>
-    <t>邪王契约使</t>
-  </si>
-  <si>
-    <t>2021-05-22 18:02:02</t>
-  </si>
-  <si>
-    <t>韶关市技师学院</t>
+    <t>344413984</t>
+  </si>
+  <si>
+    <t>安在゜</t>
+  </si>
+  <si>
+    <t>2021-05-22 18:14:44</t>
+  </si>
+  <si>
+    <t>甘肃林业职业技术学院</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>344413984</t>
-  </si>
-  <si>
-    <t>安在゜</t>
-  </si>
-  <si>
-    <t>2021-05-22 18:14:44</t>
-  </si>
-  <si>
-    <t>甘肃林业职业技术学院</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
     <t>417132936</t>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
     <t>重庆市工业技师学院</t>
   </si>
   <si>
-    <t>206</t>
+    <t>205</t>
   </si>
   <si>
     <t>518819170</t>
@@ -1933,24 +1933,24 @@
     <t>2021-05-22 18:42:12</t>
   </si>
   <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>415154174</t>
+  </si>
+  <si>
+    <t>凌凌-七</t>
+  </si>
+  <si>
+    <t>2021-05-22 21:42:51</t>
+  </si>
+  <si>
+    <t>贵阳电子职业学校</t>
+  </si>
+  <si>
     <t>208</t>
   </si>
   <si>
-    <t>415154174</t>
-  </si>
-  <si>
-    <t>凌凌-七</t>
-  </si>
-  <si>
-    <t>2021-05-22 21:42:51</t>
-  </si>
-  <si>
-    <t>贵阳电子职业学校</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
     <t>388848458</t>
   </si>
   <si>
@@ -1963,39 +1963,39 @@
     <t>盐步职业技术学校</t>
   </si>
   <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>550891079</t>
+  </si>
+  <si>
+    <t>迪大王</t>
+  </si>
+  <si>
+    <t>2021-05-23 08:15:54</t>
+  </si>
+  <si>
+    <t>鹤壁汽车工程职业学院</t>
+  </si>
+  <si>
     <t>212</t>
   </si>
   <si>
-    <t>550891079</t>
-  </si>
-  <si>
-    <t>迪大王</t>
-  </si>
-  <si>
-    <t>2021-05-23 08:15:54</t>
-  </si>
-  <si>
-    <t>鹤壁汽车工程职业学院</t>
+    <t>1021334241</t>
+  </si>
+  <si>
+    <t>老子要学习要成功</t>
+  </si>
+  <si>
+    <t>2021-05-23 08:30:30</t>
+  </si>
+  <si>
+    <t>茂名市第一职业技术学校</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
-    <t>1021334241</t>
-  </si>
-  <si>
-    <t>老子要学习要成功</t>
-  </si>
-  <si>
-    <t>2021-05-23 08:30:30</t>
-  </si>
-  <si>
-    <t>茂名市第一职业技术学校</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
     <t>160326683</t>
   </si>
   <si>
@@ -2005,36 +2005,36 @@
     <t>2021-05-23 09:52:37</t>
   </si>
   <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>74092622</t>
+  </si>
+  <si>
+    <t>Commissar-Stefan</t>
+  </si>
+  <si>
+    <t>2021-05-23 11:18:14</t>
+  </si>
+  <si>
+    <t>回复 @择一幕终了 :回复 @择一幕终了 :卧槽，徐州还有这个学校[笑哭]我当了20多年徐州人都不知道</t>
+  </si>
+  <si>
     <t>216</t>
   </si>
   <si>
-    <t>74092622</t>
-  </si>
-  <si>
-    <t>Commissar-Stefan</t>
-  </si>
-  <si>
-    <t>2021-05-23 11:18:14</t>
-  </si>
-  <si>
-    <t>回复 @择一幕终了 :回复 @择一幕终了 :卧槽，徐州还有这个学校[笑哭]我当了20多年徐州人都不知道</t>
+    <t>477089271</t>
+  </si>
+  <si>
+    <t>陈某在梦游</t>
+  </si>
+  <si>
+    <t>2021-05-23 11:53:04</t>
   </si>
   <si>
     <t>217</t>
   </si>
   <si>
-    <t>477089271</t>
-  </si>
-  <si>
-    <t>陈某在梦游</t>
-  </si>
-  <si>
-    <t>2021-05-23 11:53:04</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
     <t>51640426</t>
   </si>
   <si>
@@ -2047,7 +2047,7 @@
     <t>安徽外国语学院、合肥信息职业技术学院，合肥财经学院</t>
   </si>
   <si>
-    <t>220</t>
+    <t>219</t>
   </si>
   <si>
     <t>35587630</t>
@@ -2059,94 +2059,215 @@
     <t>2021-05-23 12:17:10</t>
   </si>
   <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>363311086</t>
+  </si>
+  <si>
+    <t>洛神花开过的季节</t>
+  </si>
+  <si>
+    <t>2021-05-23 13:21:19</t>
+  </si>
+  <si>
+    <t>以前在民办四川天一学院（一个专科学校）当过一段时间老师，他们学校和集团下属的兄弟学校都是强制学生去工厂，还在打工期间死过几个学生，特别造孽，然后把学生进工厂打工算成就业率，某辅导员工作期间口述[吃瓜][吃瓜]</t>
+  </si>
+  <si>
     <t>222</t>
   </si>
   <si>
-    <t>363311086</t>
-  </si>
-  <si>
-    <t>洛神花开过的季节</t>
-  </si>
-  <si>
-    <t>2021-05-23 13:21:19</t>
-  </si>
-  <si>
-    <t>以前在民办四川天一学院（一个专科学校）当过一段时间老师，他们学校和集团下属的兄弟学校都是强制学生去工厂，还在打工期间死过几个学生，特别造孽，然后把学生进工厂打工算成就业率，某辅导员工作期间口述[吃瓜][吃瓜]</t>
+    <t>379742660</t>
+  </si>
+  <si>
+    <t>肥宅192</t>
+  </si>
+  <si>
+    <t>2021-05-23 13:32:26</t>
+  </si>
+  <si>
+    <t>广西桂林机电职业技术学校</t>
   </si>
   <si>
     <t>223</t>
   </si>
   <si>
-    <t>379742660</t>
-  </si>
-  <si>
-    <t>肥宅192</t>
-  </si>
-  <si>
-    <t>2021-05-23 13:32:26</t>
-  </si>
-  <si>
-    <t>广西桂林机电职业技术学校</t>
+    <t>2021-05-23 13:33:54</t>
+  </si>
+  <si>
+    <t>回复 @聋哑毕业天山星泰罗 :这个是广西啥地方的学校[思考]</t>
   </si>
   <si>
     <t>224</t>
   </si>
   <si>
-    <t>2021-05-23 13:33:54</t>
-  </si>
-  <si>
-    <t>回复 @聋哑毕业天山星泰罗 :这个是广西啥地方的学校[思考]</t>
+    <t>350046546</t>
+  </si>
+  <si>
+    <t>缘之__</t>
+  </si>
+  <si>
+    <t>2021-05-23 13:45:44</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>350046546</t>
-  </si>
-  <si>
-    <t>缘之__</t>
-  </si>
-  <si>
-    <t>2021-05-23 13:45:44</t>
+    <t>77243394</t>
+  </si>
+  <si>
+    <t>玥琳华</t>
+  </si>
+  <si>
+    <t>2021-05-23 15:15:15</t>
+  </si>
+  <si>
+    <t>北海职业学院[微笑]</t>
   </si>
   <si>
     <t>226</t>
   </si>
   <si>
-    <t>77243394</t>
-  </si>
-  <si>
-    <t>玥琳华</t>
-  </si>
-  <si>
-    <t>2021-05-23 15:15:15</t>
-  </si>
-  <si>
-    <t>北海职业学院[微笑]</t>
+    <t>220982490</t>
+  </si>
+  <si>
+    <t>谁用我昵称谁是我老婆</t>
+  </si>
+  <si>
+    <t>2021-05-23 15:31:22</t>
+  </si>
+  <si>
+    <t>安徽电气工程学校</t>
   </si>
   <si>
     <t>227</t>
   </si>
   <si>
-    <t>220982490</t>
-  </si>
-  <si>
-    <t>谁用我昵称谁是我老婆</t>
-  </si>
-  <si>
-    <t>2021-05-23 15:31:22</t>
-  </si>
-  <si>
-    <t>安徽电气工程学校</t>
+    <t>2021-05-23 15:33:38</t>
+  </si>
+  <si>
+    <t>回复 @消失的情感 :所以说拿毕业证来要挟学生，学校按人头拿钱就对了?你是老师派来卧底是吧[星星眼]</t>
   </si>
   <si>
     <t>228</t>
   </si>
   <si>
-    <t>2021-05-23 15:33:38</t>
-  </si>
-  <si>
-    <t>回复 @消失的情感 :所以说拿毕业证来要挟学生，学校按人头拿钱就对了?你是老师派来卧底是吧[星星眼]</t>
+    <t>15101999</t>
+  </si>
+  <si>
+    <t>Mr影鳄鳄</t>
+  </si>
+  <si>
+    <t>2021-05-23 18:31:28</t>
+  </si>
+  <si>
+    <t>还好我们是随便找的，学校也能安排，但我们这个专业基本都是去当老师，只要家里或者。同学家里有个厂，是个个体户，有个经营执照，盖个章都行</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>289894130</t>
+  </si>
+  <si>
+    <t>忧伤゛2a丨mor</t>
+  </si>
+  <si>
+    <t>2021-05-23 18:57:50</t>
+  </si>
+  <si>
+    <t>江西航空职业技术学院，差一点进去了
+快毕业没有实习单位的统一去工厂里实习，除非你专升本，自主择业都困难重重让你先去厂里</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>361434158</t>
+  </si>
+  <si>
+    <t>污嘤神</t>
+  </si>
+  <si>
+    <t>2021-05-23 19:27:37</t>
+  </si>
+  <si>
+    <t>回复 @小爱oo :不是所有的职校，我读职校是有招聘会，，我读的专业是有个公司缺人要了一个，让我们去面试意思一下，跟学校合作的，可以不去，自己找，毕业的时候实习报告上有个公司的章签名啥的就行，我们班留那个公司的都没有几个，不过走的都是觉得待遇制度不好，其实就幸存者偏差</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>372217647</t>
+  </si>
+  <si>
+    <t>blbl368</t>
+  </si>
+  <si>
+    <t>2021-05-23 20:57:47</t>
+  </si>
+  <si>
+    <t>福建华夏高级技工学校</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>358815189</t>
+  </si>
+  <si>
+    <t>东方考拉熊</t>
+  </si>
+  <si>
+    <t>2021-05-23 22:18:58</t>
+  </si>
+  <si>
+    <t>冷水江市高级技工学校</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>43920909</t>
+  </si>
+  <si>
+    <t>井宿_</t>
+  </si>
+  <si>
+    <t>2021-05-23 23:45:43</t>
+  </si>
+  <si>
+    <t>益阳职业技术学院</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>56655184</t>
+  </si>
+  <si>
+    <t>两面包夹热狗芝士</t>
+  </si>
+  <si>
+    <t>2021-05-24 12:40:47</t>
+  </si>
+  <si>
+    <t>武汉铁路技师学院</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>34708744</t>
+  </si>
+  <si>
+    <t>老子黑虎阿福</t>
+  </si>
+  <si>
+    <t>2021-05-24 14:05:18</t>
+  </si>
+  <si>
+    <t>上饶职业技术学院</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5444,6 +5565,166 @@
         <v>708</v>
       </c>
     </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>709</v>
+      </c>
+      <c r="B149" t="s">
+        <v>710</v>
+      </c>
+      <c r="C149" t="s">
+        <v>711</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>712</v>
+      </c>
+      <c r="F149" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>714</v>
+      </c>
+      <c r="B150" t="s">
+        <v>715</v>
+      </c>
+      <c r="C150" t="s">
+        <v>716</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>717</v>
+      </c>
+      <c r="F150" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>719</v>
+      </c>
+      <c r="B151" t="s">
+        <v>720</v>
+      </c>
+      <c r="C151" t="s">
+        <v>721</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>722</v>
+      </c>
+      <c r="F151" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>724</v>
+      </c>
+      <c r="B152" t="s">
+        <v>725</v>
+      </c>
+      <c r="C152" t="s">
+        <v>726</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>727</v>
+      </c>
+      <c r="F152" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>729</v>
+      </c>
+      <c r="B153" t="s">
+        <v>730</v>
+      </c>
+      <c r="C153" t="s">
+        <v>731</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>732</v>
+      </c>
+      <c r="F153" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>734</v>
+      </c>
+      <c r="B154" t="s">
+        <v>735</v>
+      </c>
+      <c r="C154" t="s">
+        <v>736</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>737</v>
+      </c>
+      <c r="F154" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>739</v>
+      </c>
+      <c r="B155" t="s">
+        <v>740</v>
+      </c>
+      <c r="C155" t="s">
+        <v>741</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>742</v>
+      </c>
+      <c r="F155" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>744</v>
+      </c>
+      <c r="B156" t="s">
+        <v>745</v>
+      </c>
+      <c r="C156" t="s">
+        <v>746</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>747</v>
+      </c>
+      <c r="F156" t="s">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/school.xlsx
+++ b/school.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\360MoveData\Users\shen\Desktop\git\bilibili-BV-1dN411f7EM--\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A4B62-ACD9-4DF9-A26E-3FDFB2E38A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="school" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="903">
   <si>
     <t>序号</t>
   </si>
@@ -2116,7 +2122,7 @@
     <t>77243394</t>
   </si>
   <si>
-    <t>玥琳华</t>
+    <t>LLHX_fyl</t>
   </si>
   <si>
     <t>2021-05-23 15:15:15</t>
@@ -2268,18 +2274,490 @@
   </si>
   <si>
     <t>上饶职业技术学院</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>32685153</t>
+  </si>
+  <si>
+    <t>山西工业大学</t>
+  </si>
+  <si>
+    <t>2021-05-25 00:11:48</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>284831508</t>
+  </si>
+  <si>
+    <t>酷玩社</t>
+  </si>
+  <si>
+    <t>2021-05-25 00:15:42</t>
+  </si>
+  <si>
+    <t>带“职业”二字的学校</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>240790008</t>
+  </si>
+  <si>
+    <t>振宇一个</t>
+  </si>
+  <si>
+    <t>2021-05-25 07:23:56</t>
+  </si>
+  <si>
+    <t>虽然难听，但感觉这里挺多广西的学校的</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>2394997</t>
+  </si>
+  <si>
+    <t>蛋挞和热奶茶</t>
+  </si>
+  <si>
+    <t>2021-05-25 10:02:55</t>
+  </si>
+  <si>
+    <t>回复 @振宇一个 :我是广西职业技术学院的，学校还是蛮正规良心的</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>321654364</t>
+  </si>
+  <si>
+    <t>手亿人</t>
+  </si>
+  <si>
+    <t>2021-05-25 12:44:14</t>
+  </si>
+  <si>
+    <t>重庆渝北职业教育中心</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>388610095</t>
+  </si>
+  <si>
+    <t>Casualed</t>
+  </si>
+  <si>
+    <t>2021-05-25 13:18:11</t>
+  </si>
+  <si>
+    <t>南昌理工学院</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>626183934</t>
+  </si>
+  <si>
+    <t>Twobees_</t>
+  </si>
+  <si>
+    <t>2021-05-25 13:21:52</t>
+  </si>
+  <si>
+    <t>《四川联合经济专修学院》
+《四川文轩职业学院》
+这个学校隔几年就换名字，换了名字重新骗人，招生手册说的“毕业介绍工资5000以上”，“在校各专业有车间实操”，，全是吹牛皮，每天教室坐着耍，老师不讲课，没有实操课(学校担心学生把器材给他弄坏，器材室永远锁着门，只有招生的时候说的天花乱坠，说会提供给学生大量实操经验)，辅导员让你交钱给他，他保你不挂科，不交钱的，，，学校隔三差五组织各种活动，强制交费，快毕业了辅导员各种方式卡学生资料档案，不给钱他就不给通过，各种需要经他手的文件之类，他都会隐晦的让你给钱，毕业之后帮忙代领毕业证，没有300以上不行(本人是自己回去领的，被压榨了几年，宁可自己亏路费去拿，也不给他赚)，至此脱离“扒皮吸血学校”，心情大好</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>2021-05-25 13:28:07</t>
+  </si>
+  <si>
+    <t>回复 @Twobees_ :地址:成都大邑县锦屏大道9号
+学校名字经常改，地址变不了</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>2021-05-25 13:42:08</t>
+  </si>
+  <si>
+    <t>老实说这学校如果不强制要求学生打工的话，还是不错的</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>98799862</t>
+  </si>
+  <si>
+    <t>找我干啥啊</t>
+  </si>
+  <si>
+    <t>2021-05-25 15:02:05</t>
+  </si>
+  <si>
+    <t>茂名高州第一技工学校</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>84441403</t>
+  </si>
+  <si>
+    <t>CNzzkl</t>
+  </si>
+  <si>
+    <t>2021-05-25 17:45:37</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>86449783</t>
+  </si>
+  <si>
+    <t>君家地界</t>
+  </si>
+  <si>
+    <t>2021-05-25 19:32:07</t>
+  </si>
+  <si>
+    <t>重庆市经贸中等专业学校</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>261241118</t>
+  </si>
+  <si>
+    <t>阿橙呐__</t>
+  </si>
+  <si>
+    <t>2021-05-25 22:22:39</t>
+  </si>
+  <si>
+    <t>无锡南洋职业技术学院</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>433283014</t>
+  </si>
+  <si>
+    <t>老虾米饺</t>
+  </si>
+  <si>
+    <t>2021-05-25 23:24:31</t>
+  </si>
+  <si>
+    <t>兰州信息科技学院</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>91858067</t>
+  </si>
+  <si>
+    <t>坟头堆雪人</t>
+  </si>
+  <si>
+    <t>2021-05-26 13:15:41</t>
+  </si>
+  <si>
+    <t>江西科技学院</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>2093038134</t>
+  </si>
+  <si>
+    <t>孤独的根九十九</t>
+  </si>
+  <si>
+    <t>2021-05-26 16:50:39</t>
+  </si>
+  <si>
+    <t>新乡职业技术学院，学的机电，被安排进了南昌海立，一天12小时，没有休息。刚来十几天，工资还没发过，所以不知道一小时多少钱。</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>479766617</t>
+  </si>
+  <si>
+    <t>仙河领</t>
+  </si>
+  <si>
+    <t>2021-05-26 23:10:30</t>
+  </si>
+  <si>
+    <t>赣州现代科技职业学校</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>25415657</t>
+  </si>
+  <si>
+    <t>兮谛枫沁</t>
+  </si>
+  <si>
+    <t>2021-05-26 23:37:04</t>
+  </si>
+  <si>
+    <t>保定理工学院 本科，强制电子厂实习！！！</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>104406354</t>
+  </si>
+  <si>
+    <t>浪仙御魂</t>
+  </si>
+  <si>
+    <t>2021-05-27 00:00:00</t>
+  </si>
+  <si>
+    <t>衡阳市职业中专学校</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>478887242</t>
+  </si>
+  <si>
+    <t>梓上佳人</t>
+  </si>
+  <si>
+    <t>2021-05-27 07:12:07</t>
+  </si>
+  <si>
+    <t>青岛求实职业技术学院，我们是要么提前实习三个月，后续实习六个月，要么以后是实习九个月</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>485716196</t>
+  </si>
+  <si>
+    <t>suidhdk</t>
+  </si>
+  <si>
+    <t>2021-05-27 19:54:59</t>
+  </si>
+  <si>
+    <t>盐城技师学院</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>38905782</t>
+  </si>
+  <si>
+    <t>烽灬狼烟吧</t>
+  </si>
+  <si>
+    <t>2021-05-28 11:09:37</t>
+  </si>
+  <si>
+    <t>昌吉学院  强制实习 没有任何工资  不去不给毕业证</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>86709113</t>
+  </si>
+  <si>
+    <t>空城旧梦syb</t>
+  </si>
+  <si>
+    <t>2021-05-28 11:29:03</t>
+  </si>
+  <si>
+    <t>回复 @渡鸦q :抱抱，我家住那个学校附近</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>476702426</t>
+  </si>
+  <si>
+    <t>休思anan</t>
+  </si>
+  <si>
+    <t>2021-05-28 18:22:54</t>
+  </si>
+  <si>
+    <t>江西科技职业学院</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>299104191</t>
+  </si>
+  <si>
+    <t>暮江秋雨</t>
+  </si>
+  <si>
+    <t>2021-05-29 11:08:44</t>
+  </si>
+  <si>
+    <t>扬州江海职业技术学院</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>380885309</t>
+  </si>
+  <si>
+    <t>dyaning</t>
+  </si>
+  <si>
+    <t>2021-05-29 11:53:15</t>
+  </si>
+  <si>
+    <t>郑州城轨中等专业职业学校</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>407796265</t>
+  </si>
+  <si>
+    <t>布板狼鸭牙</t>
+  </si>
+  <si>
+    <t>2021-05-29 12:27:25</t>
+  </si>
+  <si>
+    <t>邵阳交通职业学校。</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>1834563839</t>
+  </si>
+  <si>
+    <t>不跟傻瓜论短长</t>
+  </si>
+  <si>
+    <t>2021-05-29 16:28:28</t>
+  </si>
+  <si>
+    <t>长春汽车工业高等专科学校，我们那会10小时是基础，有时候能加班到12个小时</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>96398919</t>
+  </si>
+  <si>
+    <t>晴空与暖阳</t>
+  </si>
+  <si>
+    <t>2021-05-30 01:15:20</t>
+  </si>
+  <si>
+    <t>回复 @孤独的根九十九 :不想干走就是了，学校不敢真不给毕业证。</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>252638351</t>
+  </si>
+  <si>
+    <t>这个铁憨憨</t>
+  </si>
+  <si>
+    <t>2021-05-31 11:54:20</t>
+  </si>
+  <si>
+    <t>齐齐哈尔工程学院[捂眼]</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>230275866</t>
+  </si>
+  <si>
+    <t>单推平泽唯</t>
+  </si>
+  <si>
+    <t>2021-05-31 12:49:04</t>
+  </si>
+  <si>
+    <t>深圳市 携创高级技工学校</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>387210303</t>
+  </si>
+  <si>
+    <t>老坡饼没老婆</t>
+  </si>
+  <si>
+    <t>2021-05-31 13:49:04</t>
+  </si>
+  <si>
+    <t>江苏淮安工业中等职业专业学校</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2307,15 +2785,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2357,7 +2843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2389,9 +2875,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2423,6 +2927,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2598,14 +3120,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2645,7 +3170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2685,7 +3210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2705,7 +3230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2725,7 +3250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2745,7 +3270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2765,7 +3290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2785,7 +3310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2805,7 +3330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2825,7 +3350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2845,7 +3370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2865,7 +3390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2885,7 +3410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2905,7 +3430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2925,7 +3450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2945,7 +3470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2965,7 +3490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2985,7 +3510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -3005,7 +3530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -3025,7 +3550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3045,7 +3570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -3065,7 +3590,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -3085,7 +3610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -3105,7 +3630,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -3125,7 +3650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -3145,7 +3670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -3165,7 +3690,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -3185,7 +3710,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -3205,7 +3730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -3225,7 +3750,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -3245,7 +3770,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -3265,7 +3790,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -3285,7 +3810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -3305,7 +3830,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3325,7 +3850,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -3345,7 +3870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -3365,7 +3890,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3385,7 +3910,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -3405,7 +3930,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -3425,7 +3950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3445,7 +3970,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -3465,7 +3990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -3485,7 +4010,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -3505,7 +4030,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -3525,7 +4050,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -3545,7 +4070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3565,7 +4090,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>237</v>
       </c>
@@ -3585,7 +4110,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -3605,7 +4130,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -3625,7 +4150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -3645,7 +4170,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -3656,7 +4181,7 @@
         <v>255</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
         <v>256</v>
@@ -3665,7 +4190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -3685,7 +4210,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -3705,7 +4230,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3725,7 +4250,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -3745,7 +4270,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>278</v>
       </c>
@@ -3765,7 +4290,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>283</v>
       </c>
@@ -3785,7 +4310,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>288</v>
       </c>
@@ -3805,7 +4330,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>293</v>
       </c>
@@ -3825,7 +4350,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -3845,7 +4370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>303</v>
       </c>
@@ -3865,7 +4390,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>307</v>
       </c>
@@ -3885,7 +4410,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>312</v>
       </c>
@@ -3905,7 +4430,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>317</v>
       </c>
@@ -3925,7 +4450,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>322</v>
       </c>
@@ -3945,7 +4470,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -3965,7 +4490,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>332</v>
       </c>
@@ -3985,7 +4510,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>337</v>
       </c>
@@ -4005,7 +4530,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>342</v>
       </c>
@@ -4025,7 +4550,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>347</v>
       </c>
@@ -4045,7 +4570,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>352</v>
       </c>
@@ -4065,7 +4590,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>357</v>
       </c>
@@ -4085,7 +4610,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>362</v>
       </c>
@@ -4105,7 +4630,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>367</v>
       </c>
@@ -4125,7 +4650,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>371</v>
       </c>
@@ -4145,7 +4670,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>376</v>
       </c>
@@ -4165,7 +4690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>380</v>
       </c>
@@ -4185,7 +4710,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>385</v>
       </c>
@@ -4205,7 +4730,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>390</v>
       </c>
@@ -4225,7 +4750,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>395</v>
       </c>
@@ -4245,7 +4770,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>400</v>
       </c>
@@ -4265,7 +4790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>404</v>
       </c>
@@ -4285,7 +4810,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>409</v>
       </c>
@@ -4305,7 +4830,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>412</v>
       </c>
@@ -4325,7 +4850,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>417</v>
       </c>
@@ -4345,7 +4870,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>422</v>
       </c>
@@ -4365,7 +4890,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>427</v>
       </c>
@@ -4385,7 +4910,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>432</v>
       </c>
@@ -4396,7 +4921,7 @@
         <v>434</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
         <v>435</v>
@@ -4405,7 +4930,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>437</v>
       </c>
@@ -4425,7 +4950,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>442</v>
       </c>
@@ -4445,7 +4970,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>447</v>
       </c>
@@ -4465,7 +4990,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>450</v>
       </c>
@@ -4485,7 +5010,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>455</v>
       </c>
@@ -4505,7 +5030,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>460</v>
       </c>
@@ -4525,7 +5050,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>465</v>
       </c>
@@ -4545,7 +5070,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>470</v>
       </c>
@@ -4565,7 +5090,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>475</v>
       </c>
@@ -4585,7 +5110,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>480</v>
       </c>
@@ -4605,7 +5130,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>485</v>
       </c>
@@ -4625,7 +5150,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>489</v>
       </c>
@@ -4645,7 +5170,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>494</v>
       </c>
@@ -4665,7 +5190,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>499</v>
       </c>
@@ -4685,7 +5210,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>502</v>
       </c>
@@ -4705,7 +5230,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>507</v>
       </c>
@@ -4725,7 +5250,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>512</v>
       </c>
@@ -4745,7 +5270,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>517</v>
       </c>
@@ -4765,7 +5290,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>522</v>
       </c>
@@ -4785,7 +5310,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>525</v>
       </c>
@@ -4805,7 +5330,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>530</v>
       </c>
@@ -4825,7 +5350,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>535</v>
       </c>
@@ -4845,7 +5370,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>540</v>
       </c>
@@ -4865,7 +5390,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>545</v>
       </c>
@@ -4885,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>549</v>
       </c>
@@ -4905,7 +5430,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>554</v>
       </c>
@@ -4925,7 +5450,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>559</v>
       </c>
@@ -4945,7 +5470,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>564</v>
       </c>
@@ -4965,7 +5490,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>569</v>
       </c>
@@ -4985,7 +5510,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>574</v>
       </c>
@@ -5005,7 +5530,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>579</v>
       </c>
@@ -5025,7 +5550,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>584</v>
       </c>
@@ -5045,7 +5570,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>589</v>
       </c>
@@ -5065,7 +5590,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>593</v>
       </c>
@@ -5085,7 +5610,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>598</v>
       </c>
@@ -5105,7 +5630,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>603</v>
       </c>
@@ -5125,7 +5650,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>608</v>
       </c>
@@ -5145,7 +5670,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>613</v>
       </c>
@@ -5165,7 +5690,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>618</v>
       </c>
@@ -5185,7 +5710,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>623</v>
       </c>
@@ -5205,7 +5730,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>628</v>
       </c>
@@ -5225,7 +5750,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>633</v>
       </c>
@@ -5245,7 +5770,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>637</v>
       </c>
@@ -5265,7 +5790,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>642</v>
       </c>
@@ -5285,7 +5810,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>647</v>
       </c>
@@ -5305,7 +5830,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>652</v>
       </c>
@@ -5325,7 +5850,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>657</v>
       </c>
@@ -5345,7 +5870,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>661</v>
       </c>
@@ -5365,7 +5890,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>666</v>
       </c>
@@ -5385,7 +5910,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>670</v>
       </c>
@@ -5405,7 +5930,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>675</v>
       </c>
@@ -5425,7 +5950,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>679</v>
       </c>
@@ -5445,7 +5970,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>684</v>
       </c>
@@ -5465,7 +5990,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>689</v>
       </c>
@@ -5485,7 +6010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>692</v>
       </c>
@@ -5505,7 +6030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>696</v>
       </c>
@@ -5525,7 +6050,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>701</v>
       </c>
@@ -5545,7 +6070,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>706</v>
       </c>
@@ -5565,7 +6090,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>709</v>
       </c>
@@ -5585,7 +6110,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>714</v>
       </c>
@@ -5605,7 +6130,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>719</v>
       </c>
@@ -5625,7 +6150,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>724</v>
       </c>
@@ -5645,7 +6170,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>729</v>
       </c>
@@ -5665,7 +6190,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>734</v>
       </c>
@@ -5685,7 +6210,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>739</v>
       </c>
@@ -5705,7 +6230,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>744</v>
       </c>
@@ -5725,7 +6250,649 @@
         <v>748</v>
       </c>
     </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>749</v>
+      </c>
+      <c r="B157" t="s">
+        <v>750</v>
+      </c>
+      <c r="C157" t="s">
+        <v>751</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>752</v>
+      </c>
+      <c r="F157" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>753</v>
+      </c>
+      <c r="B158" t="s">
+        <v>754</v>
+      </c>
+      <c r="C158" t="s">
+        <v>755</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>756</v>
+      </c>
+      <c r="F158" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>758</v>
+      </c>
+      <c r="B159" t="s">
+        <v>759</v>
+      </c>
+      <c r="C159" t="s">
+        <v>760</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>761</v>
+      </c>
+      <c r="F159" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>763</v>
+      </c>
+      <c r="B160" t="s">
+        <v>764</v>
+      </c>
+      <c r="C160" t="s">
+        <v>765</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>766</v>
+      </c>
+      <c r="F160" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>768</v>
+      </c>
+      <c r="B161" t="s">
+        <v>769</v>
+      </c>
+      <c r="C161" t="s">
+        <v>770</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>771</v>
+      </c>
+      <c r="F161" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>773</v>
+      </c>
+      <c r="B162" t="s">
+        <v>774</v>
+      </c>
+      <c r="C162" t="s">
+        <v>775</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s">
+        <v>776</v>
+      </c>
+      <c r="F162" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>778</v>
+      </c>
+      <c r="B163" t="s">
+        <v>779</v>
+      </c>
+      <c r="C163" t="s">
+        <v>780</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>781</v>
+      </c>
+      <c r="F163" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>783</v>
+      </c>
+      <c r="B164" t="s">
+        <v>779</v>
+      </c>
+      <c r="C164" t="s">
+        <v>780</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>784</v>
+      </c>
+      <c r="F164" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>786</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>787</v>
+      </c>
+      <c r="F165" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>789</v>
+      </c>
+      <c r="B166" t="s">
+        <v>790</v>
+      </c>
+      <c r="C166" t="s">
+        <v>791</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>792</v>
+      </c>
+      <c r="F166" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>794</v>
+      </c>
+      <c r="B167" t="s">
+        <v>795</v>
+      </c>
+      <c r="C167" t="s">
+        <v>796</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>797</v>
+      </c>
+      <c r="F167" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>798</v>
+      </c>
+      <c r="B168" t="s">
+        <v>799</v>
+      </c>
+      <c r="C168" t="s">
+        <v>800</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>801</v>
+      </c>
+      <c r="F168" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>803</v>
+      </c>
+      <c r="B169" t="s">
+        <v>804</v>
+      </c>
+      <c r="C169" t="s">
+        <v>805</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>806</v>
+      </c>
+      <c r="F169" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>808</v>
+      </c>
+      <c r="B170" t="s">
+        <v>809</v>
+      </c>
+      <c r="C170" t="s">
+        <v>810</v>
+      </c>
+      <c r="D170">
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
+        <v>811</v>
+      </c>
+      <c r="F170" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>813</v>
+      </c>
+      <c r="B171" t="s">
+        <v>814</v>
+      </c>
+      <c r="C171" t="s">
+        <v>815</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>816</v>
+      </c>
+      <c r="F171" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>818</v>
+      </c>
+      <c r="B172" t="s">
+        <v>819</v>
+      </c>
+      <c r="C172" t="s">
+        <v>820</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>821</v>
+      </c>
+      <c r="F172" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>823</v>
+      </c>
+      <c r="B173" t="s">
+        <v>824</v>
+      </c>
+      <c r="C173" t="s">
+        <v>825</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>826</v>
+      </c>
+      <c r="F173" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>828</v>
+      </c>
+      <c r="B174" t="s">
+        <v>829</v>
+      </c>
+      <c r="C174" t="s">
+        <v>830</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174" t="s">
+        <v>831</v>
+      </c>
+      <c r="F174" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>833</v>
+      </c>
+      <c r="B175" t="s">
+        <v>834</v>
+      </c>
+      <c r="C175" t="s">
+        <v>835</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>836</v>
+      </c>
+      <c r="F175" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>838</v>
+      </c>
+      <c r="B176" t="s">
+        <v>839</v>
+      </c>
+      <c r="C176" t="s">
+        <v>840</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
+      </c>
+      <c r="E176" t="s">
+        <v>841</v>
+      </c>
+      <c r="F176" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>843</v>
+      </c>
+      <c r="B177" t="s">
+        <v>844</v>
+      </c>
+      <c r="C177" t="s">
+        <v>845</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>846</v>
+      </c>
+      <c r="F177" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>848</v>
+      </c>
+      <c r="B178" t="s">
+        <v>849</v>
+      </c>
+      <c r="C178" t="s">
+        <v>850</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>851</v>
+      </c>
+      <c r="F178" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>853</v>
+      </c>
+      <c r="B179" t="s">
+        <v>854</v>
+      </c>
+      <c r="C179" t="s">
+        <v>855</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>856</v>
+      </c>
+      <c r="F179" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>858</v>
+      </c>
+      <c r="B180" t="s">
+        <v>859</v>
+      </c>
+      <c r="C180" t="s">
+        <v>860</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180" t="s">
+        <v>861</v>
+      </c>
+      <c r="F180" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>863</v>
+      </c>
+      <c r="B181" t="s">
+        <v>864</v>
+      </c>
+      <c r="C181" t="s">
+        <v>865</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>866</v>
+      </c>
+      <c r="F181" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>868</v>
+      </c>
+      <c r="B182" t="s">
+        <v>869</v>
+      </c>
+      <c r="C182" t="s">
+        <v>870</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>871</v>
+      </c>
+      <c r="F182" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>873</v>
+      </c>
+      <c r="B183" t="s">
+        <v>874</v>
+      </c>
+      <c r="C183" t="s">
+        <v>875</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>876</v>
+      </c>
+      <c r="F183" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>878</v>
+      </c>
+      <c r="B184" t="s">
+        <v>879</v>
+      </c>
+      <c r="C184" t="s">
+        <v>880</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>881</v>
+      </c>
+      <c r="F184" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>883</v>
+      </c>
+      <c r="B185" t="s">
+        <v>884</v>
+      </c>
+      <c r="C185" t="s">
+        <v>885</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>886</v>
+      </c>
+      <c r="F185" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>888</v>
+      </c>
+      <c r="B186" t="s">
+        <v>889</v>
+      </c>
+      <c r="C186" t="s">
+        <v>890</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>891</v>
+      </c>
+      <c r="F186" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>893</v>
+      </c>
+      <c r="B187" t="s">
+        <v>894</v>
+      </c>
+      <c r="C187" t="s">
+        <v>895</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>896</v>
+      </c>
+      <c r="F187" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>898</v>
+      </c>
+      <c r="B188" t="s">
+        <v>899</v>
+      </c>
+      <c r="C188" t="s">
+        <v>900</v>
+      </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
+      <c r="E188" t="s">
+        <v>901</v>
+      </c>
+      <c r="F188" t="s">
+        <v>902</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/school.xlsx
+++ b/school.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\360MoveData\Users\shen\Desktop\git\bilibili-BV-1dN411f7EM--\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A4B62-ACD9-4DF9-A26E-3FDFB2E38A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="school" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="923">
   <si>
     <t>序号</t>
   </si>
@@ -1130,7 +1124,7 @@
     <t>369532692</t>
   </si>
   <si>
-    <t>小屋木雨</t>
+    <t>通辽帝国大司空</t>
   </si>
   <si>
     <t>2021-05-10 17:21:52</t>
@@ -2740,24 +2734,77 @@
   <si>
     <t>江苏淮安工业中等职业专业学校</t>
   </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>504394380</t>
+  </si>
+  <si>
+    <t>VACATIONER</t>
+  </si>
+  <si>
+    <t>2021-06-01 23:44:36</t>
+  </si>
+  <si>
+    <t>奉新冶城职业学校 我这美丽的学校 三校综合 文化 技术 艺术 我读的文化 也是中考五百分进的学校 好家伙 高二一开学交完学费就被送去安徽某讯顶岗实习三个月 两个月的夜班 一个月白班 一个月最多三千六 还是一个月不休息 不能不去实习 或者中途回家 不然 毕业证威胁[支持]</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>32422999</t>
+  </si>
+  <si>
+    <t>甘城なつき</t>
+  </si>
+  <si>
+    <t>2021-06-02 13:29:15</t>
+  </si>
+  <si>
+    <t>武汉光谷职业学院</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>398830232</t>
+  </si>
+  <si>
+    <t>Minor_寂月</t>
+  </si>
+  <si>
+    <t>2021-06-02 13:48:56</t>
+  </si>
+  <si>
+    <t>河北科技学院</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>378529275</t>
+  </si>
+  <si>
+    <t>正气质佳人</t>
+  </si>
+  <si>
+    <t>2021-06-02 17:55:36</t>
+  </si>
+  <si>
+    <t>宜宾市长宁县职业技术学校</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2785,23 +2832,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2843,7 +2882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2875,27 +2914,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2927,24 +2948,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3120,17 +3123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>164</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>237</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>278</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>283</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>288</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>293</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>303</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>307</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>312</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>317</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>322</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>332</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>337</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>342</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>347</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>352</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>357</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>362</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>367</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>371</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>376</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>380</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>385</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>390</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>395</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>400</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>404</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>409</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>412</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>417</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>422</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>427</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>432</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>437</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>442</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>447</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>450</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>455</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>460</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>465</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>470</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>475</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>480</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>485</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>489</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>494</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>499</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>502</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>507</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>512</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>517</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>522</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>525</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>530</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>535</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>540</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>545</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>549</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>554</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>559</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>564</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>569</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>574</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>579</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>584</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>589</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>593</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>598</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>603</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>608</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>613</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>618</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>623</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>628</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>633</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>637</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>642</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>647</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>652</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>657</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>661</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>666</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>670</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>675</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>679</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>684</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>689</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>692</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>696</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>701</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>706</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>709</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>714</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>719</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>724</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>729</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>734</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>739</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>744</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>749</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>753</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>758</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>763</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>768</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>773</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>778</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>780</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163" t="s">
         <v>781</v>
@@ -6390,7 +6390,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>783</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>780</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164" t="s">
         <v>784</v>
@@ -6410,7 +6410,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>786</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>789</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>794</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>798</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>803</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>808</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>813</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>818</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>823</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>828</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>833</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>838</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>843</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>848</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>853</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>858</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>863</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>868</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>873</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>878</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>883</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>888</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>893</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>898</v>
       </c>
@@ -6890,9 +6890,87 @@
         <v>902</v>
       </c>
     </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>903</v>
+      </c>
+      <c r="B189" t="s">
+        <v>904</v>
+      </c>
+      <c r="C189" t="s">
+        <v>905</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>906</v>
+      </c>
+      <c r="F189" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>908</v>
+      </c>
+      <c r="B190" t="s">
+        <v>909</v>
+      </c>
+      <c r="C190" t="s">
+        <v>910</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>911</v>
+      </c>
+      <c r="F190" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>913</v>
+      </c>
+      <c r="B191" t="s">
+        <v>914</v>
+      </c>
+      <c r="C191" t="s">
+        <v>915</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>916</v>
+      </c>
+      <c r="F191" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>918</v>
+      </c>
+      <c r="B192" t="s">
+        <v>919</v>
+      </c>
+      <c r="C192" t="s">
+        <v>920</v>
+      </c>
+      <c r="D192">
+        <v>4</v>
+      </c>
+      <c r="E192" t="s">
+        <v>921</v>
+      </c>
+      <c r="F192" t="s">
+        <v>922</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/school.xlsx
+++ b/school.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="937">
   <si>
     <t>序号</t>
   </si>
@@ -740,60 +740,45 @@
     <t>75</t>
   </si>
   <si>
-    <t>37001444</t>
-  </si>
-  <si>
-    <t>不想当欧皇的欧皇</t>
-  </si>
-  <si>
-    <t>2021-05-10 10:05:47</t>
-  </si>
-  <si>
-    <t>郑州电力职业技术学校</t>
+    <t>27486210</t>
+  </si>
+  <si>
+    <t>友网心热</t>
+  </si>
+  <si>
+    <t>2021-05-10 10:06:57</t>
+  </si>
+  <si>
+    <t>肇庆科技中等职业学校</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>27486210</t>
-  </si>
-  <si>
-    <t>友网心热</t>
-  </si>
-  <si>
-    <t>2021-05-10 10:06:57</t>
-  </si>
-  <si>
-    <t>肇庆科技中等职业学校</t>
+    <t>2021-05-10 10:09:04</t>
+  </si>
+  <si>
+    <t>实习的时候被宿舍的虫子咬的，不在去学校了</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>2021-05-10 10:09:04</t>
-  </si>
-  <si>
-    <t>实习的时候被宿舍的虫子咬的，不在去学校了</t>
+    <t>241237858</t>
+  </si>
+  <si>
+    <t>想要坠入深海</t>
+  </si>
+  <si>
+    <t>2021-05-10 10:26:01</t>
+  </si>
+  <si>
+    <t>江西科汇技术学院</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>241237858</t>
-  </si>
-  <si>
-    <t>想要坠入深海</t>
-  </si>
-  <si>
-    <t>2021-05-10 10:26:01</t>
-  </si>
-  <si>
-    <t>江西科汇技术学院</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>221784266</t>
   </si>
   <si>
@@ -806,7 +791,7 @@
     <t>邻水职业技术学校</t>
   </si>
   <si>
-    <t>81</t>
+    <t>80</t>
   </si>
   <si>
     <t>213851511</t>
@@ -821,114 +806,99 @@
     <t>这不很正常，我们一实习就是三个月，还与自己所学的职业无关，工资与员工相差7到9元（干工1小时） ，每天8点到早上8点，夜班连上，三个月没放过假，没有假期，我当时作完三个月感觉自己都不是人了，要不是为了毕业证，我上的学校叫重庆市聚英技工学校，上班的吸血厂叫重庆莱宝科技有限公司[哭泣]</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>95789351</t>
+  </si>
+  <si>
+    <t>好喜欢自己</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:04:49</t>
+  </si>
+  <si>
+    <t>达州华南理工职业技术学校</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
-    <t>95789351</t>
-  </si>
-  <si>
-    <t>好喜欢自己</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:04:49</t>
-  </si>
-  <si>
-    <t>达州华南理工职业技术学校</t>
+    <t>408672342</t>
+  </si>
+  <si>
+    <t>杰伦的远房表哥</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:17:35</t>
+  </si>
+  <si>
+    <t>河南省工业和信息化高级技工学校</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>408672342</t>
-  </si>
-  <si>
-    <t>吃花菜的汪酱</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:17:35</t>
-  </si>
-  <si>
-    <t>河南省工业和信息化高级技工学校</t>
+    <t>88833619</t>
+  </si>
+  <si>
+    <t>我的妹妹是黃漫老师</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:23:30</t>
+  </si>
+  <si>
+    <t>广西交通技师学院</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>88833619</t>
-  </si>
-  <si>
-    <t>我的妹妹是黃漫老师</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:23:30</t>
-  </si>
-  <si>
-    <t>广西交通技师学院</t>
+    <t>35665454</t>
+  </si>
+  <si>
+    <t>啊形形23333</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:23:42</t>
+  </si>
+  <si>
+    <t>河源技师学院</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>35665454</t>
-  </si>
-  <si>
-    <t>啊形形23333</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:23:42</t>
-  </si>
-  <si>
-    <t>河源技师学院</t>
+    <t>288615216</t>
+  </si>
+  <si>
+    <t>洛言澪</t>
+  </si>
+  <si>
+    <t>2021-05-10 11:25:11</t>
+  </si>
+  <si>
+    <t>云南商务职业学院[无语]</t>
   </si>
   <si>
     <t>87</t>
   </si>
   <si>
-    <t>288615216</t>
-  </si>
-  <si>
-    <t>洛言澪</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:25:11</t>
-  </si>
-  <si>
-    <t>云南商务职业学院[无语]</t>
+    <t>365147295</t>
+  </si>
+  <si>
+    <t>琦妙怪儿</t>
+  </si>
+  <si>
+    <t>2021-05-10 12:23:44</t>
+  </si>
+  <si>
+    <t>新乡技师学院</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>35622511</t>
-  </si>
-  <si>
-    <t>聋哑毕业天山星泰罗</t>
-  </si>
-  <si>
-    <t>2021-05-10 11:28:07</t>
-  </si>
-  <si>
-    <t>广西工程职业学院</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>365147295</t>
-  </si>
-  <si>
-    <t>琦妙怪儿</t>
-  </si>
-  <si>
-    <t>2021-05-10 12:23:44</t>
-  </si>
-  <si>
-    <t>新乡技师学院</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>1430550625</t>
   </si>
   <si>
@@ -938,24 +908,24 @@
     <t>2021-05-10 12:26:24</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>247746706</t>
+  </si>
+  <si>
+    <t>阿玉说</t>
+  </si>
+  <si>
+    <t>2021-05-10 12:46:19</t>
+  </si>
+  <si>
+    <t>河南机电职业学院</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
-    <t>247746706</t>
-  </si>
-  <si>
-    <t>阿玉说</t>
-  </si>
-  <si>
-    <t>2021-05-10 12:46:19</t>
-  </si>
-  <si>
-    <t>河南机电职业学院</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>195523405</t>
   </si>
   <si>
@@ -968,186 +938,186 @@
     <t>浦城职业技术学校</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>109343594</t>
+  </si>
+  <si>
+    <t>诶好大一只妖</t>
+  </si>
+  <si>
+    <t>2021-05-10 13:17:32</t>
+  </si>
+  <si>
+    <t>河南南阳经济管理学院</t>
+  </si>
+  <si>
     <t>97</t>
   </si>
   <si>
-    <t>109343594</t>
-  </si>
-  <si>
-    <t>诶好大一只妖</t>
-  </si>
-  <si>
-    <t>2021-05-10 13:17:32</t>
-  </si>
-  <si>
-    <t>河南南阳经济管理学院</t>
+    <t>295941696</t>
+  </si>
+  <si>
+    <t>反手就是壹脚</t>
+  </si>
+  <si>
+    <t>2021-05-10 13:34:29</t>
+  </si>
+  <si>
+    <t>咸阳职业技术学校</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>25726377</t>
+  </si>
+  <si>
+    <t>与我无瓜子</t>
+  </si>
+  <si>
+    <t>2021-05-10 13:49:10</t>
+  </si>
+  <si>
+    <t>成都机电工程学院</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>295941696</t>
-  </si>
-  <si>
-    <t>反手就是壹脚</t>
-  </si>
-  <si>
-    <t>2021-05-10 13:34:29</t>
-  </si>
-  <si>
-    <t>咸阳职业技术学校</t>
+    <t>474595187</t>
+  </si>
+  <si>
+    <t>不知道改要啥昵称</t>
+  </si>
+  <si>
+    <t>2021-05-10 14:17:50</t>
+  </si>
+  <si>
+    <t>商丘职业技术学院</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>25726377</t>
-  </si>
-  <si>
-    <t>与我无瓜子</t>
-  </si>
-  <si>
-    <t>2021-05-10 13:49:10</t>
-  </si>
-  <si>
-    <t>成都机电工程学院</t>
+    <t>103370003</t>
+  </si>
+  <si>
+    <t>我摊牌了我是伞兵</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:11:01</t>
+  </si>
+  <si>
+    <t>保定职业技术学院</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>474595187</t>
-  </si>
-  <si>
-    <t>不知道改要啥昵称</t>
-  </si>
-  <si>
-    <t>2021-05-10 14:17:50</t>
-  </si>
-  <si>
-    <t>商丘职业技术学院</t>
+    <t>690216371</t>
+  </si>
+  <si>
+    <t>洛之半心</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:34:56</t>
+  </si>
+  <si>
+    <t>六安职业技术学院</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>103370003</t>
-  </si>
-  <si>
-    <t>我摊牌了我是伞兵</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:11:01</t>
-  </si>
-  <si>
-    <t>保定职业技术学院</t>
+    <t>285073226</t>
+  </si>
+  <si>
+    <t>我是不是黄瓜</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:36:46</t>
+  </si>
+  <si>
+    <t>大新县职业技术学校</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>690216371</t>
-  </si>
-  <si>
-    <t>洛之半心</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:34:56</t>
-  </si>
-  <si>
-    <t>六安职业技术学院</t>
+    <t>353247720</t>
+  </si>
+  <si>
+    <t>灰屑之魔女--伊蕾娜</t>
+  </si>
+  <si>
+    <t>2021-05-10 15:40:31</t>
+  </si>
+  <si>
+    <t>(湖北)恩施职业技术学院。中专</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>285073226</t>
-  </si>
-  <si>
-    <t>我是不是黄瓜</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:36:46</t>
-  </si>
-  <si>
-    <t>大新县职业技术学校</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>353247720</t>
-  </si>
-  <si>
-    <t>灰屑之魔女--伊蕾娜</t>
-  </si>
-  <si>
-    <t>2021-05-10 15:40:31</t>
-  </si>
-  <si>
-    <t>(湖北)恩施职业技术学院。中专</t>
+    <t>473640875</t>
+  </si>
+  <si>
+    <t>呆毛萌吃货殿下</t>
+  </si>
+  <si>
+    <t>2021-05-10 16:34:38</t>
+  </si>
+  <si>
+    <t>这么多学校吗？[辣眼睛][大哭][大哭][大哭]</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>473640875</t>
-  </si>
-  <si>
-    <t>呆毛萌吃货殿下</t>
-  </si>
-  <si>
-    <t>2021-05-10 16:34:38</t>
-  </si>
-  <si>
-    <t>这么多学校吗？[辣眼睛][大哭][大哭][大哭]</t>
+    <t>363167851</t>
+  </si>
+  <si>
+    <t>隙间的风</t>
+  </si>
+  <si>
+    <t>2021-05-10 17:19:41</t>
+  </si>
+  <si>
+    <t>榆林能源化工职业技术学校</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>369532692</t>
+  </si>
+  <si>
+    <t>通辽帝国大司空</t>
+  </si>
+  <si>
+    <t>2021-05-10 17:21:52</t>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
-    <t>363167851</t>
-  </si>
-  <si>
-    <t>隙间的风</t>
-  </si>
-  <si>
-    <t>2021-05-10 17:19:41</t>
-  </si>
-  <si>
-    <t>榆林能源化工职业技术学校</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>369532692</t>
-  </si>
-  <si>
-    <t>通辽帝国大司空</t>
-  </si>
-  <si>
-    <t>2021-05-10 17:21:52</t>
+    <t>453290645</t>
+  </si>
+  <si>
+    <t>俺家那口子银银</t>
+  </si>
+  <si>
+    <t>2021-05-10 17:42:16</t>
+  </si>
+  <si>
+    <t>灵璧县高级职业技术学校</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>453290645</t>
-  </si>
-  <si>
-    <t>俺家那口子银银</t>
-  </si>
-  <si>
-    <t>2021-05-10 17:42:16</t>
-  </si>
-  <si>
-    <t>灵璧县高级职业技术学校</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>28956581</t>
   </si>
   <si>
@@ -1157,69 +1127,69 @@
     <t>2021-05-10 18:26:30</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>248909094</t>
+  </si>
+  <si>
+    <t>性感萝莉岳云鹏96</t>
+  </si>
+  <si>
+    <t>2021-05-10 18:50:09</t>
+  </si>
+  <si>
+    <t>威海职业学院</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>248909094</t>
-  </si>
-  <si>
-    <t>性感萝莉岳云鹏96</t>
-  </si>
-  <si>
-    <t>2021-05-10 18:50:09</t>
-  </si>
-  <si>
-    <t>威海职业学院</t>
+    <t>88165150</t>
+  </si>
+  <si>
+    <t>秋恋殇别</t>
+  </si>
+  <si>
+    <t>2021-05-10 20:03:06</t>
+  </si>
+  <si>
+    <t>黑龙江职业学院的有没有</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>315631288</t>
+  </si>
+  <si>
+    <t>L丶mperial</t>
+  </si>
+  <si>
+    <t>2021-05-10 20:27:32</t>
+  </si>
+  <si>
+    <t>连云港职业技术学院</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>88165150</t>
-  </si>
-  <si>
-    <t>秋恋殇别</t>
-  </si>
-  <si>
-    <t>2021-05-10 20:03:06</t>
-  </si>
-  <si>
-    <t>黑龙江职业学院的有没有</t>
+    <t>440025406</t>
+  </si>
+  <si>
+    <t>sakura---酱</t>
+  </si>
+  <si>
+    <t>2021-05-10 20:34:32</t>
+  </si>
+  <si>
+    <t>临海市华海技术学校</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>315631288</t>
-  </si>
-  <si>
-    <t>L丶mperial</t>
-  </si>
-  <si>
-    <t>2021-05-10 20:27:32</t>
-  </si>
-  <si>
-    <t>连云港职业技术学院</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>440025406</t>
-  </si>
-  <si>
-    <t>sakura---酱</t>
-  </si>
-  <si>
-    <t>2021-05-10 20:34:32</t>
-  </si>
-  <si>
-    <t>临海市华海技术学校</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>225565791</t>
   </si>
   <si>
@@ -1229,7 +1199,7 @@
     <t>2021-05-10 20:36:06</t>
   </si>
   <si>
-    <t>121</t>
+    <t>119</t>
   </si>
   <si>
     <t>27975130</t>
@@ -1244,7 +1214,7 @@
     <t>石河子职业技术学院</t>
   </si>
   <si>
-    <t>122</t>
+    <t>120</t>
   </si>
   <si>
     <t>2021-05-10 21:45:56</t>
@@ -1253,7 +1223,7 @@
     <t>石河子职业技术学院 求曝光</t>
   </si>
   <si>
-    <t>125</t>
+    <t>123</t>
   </si>
   <si>
     <t>302435968</t>
@@ -1268,7 +1238,7 @@
     <t>现代商贸技工学校</t>
   </si>
   <si>
-    <t>129</t>
+    <t>127</t>
   </si>
   <si>
     <t>42286590</t>
@@ -1283,37 +1253,37 @@
     <t>江西机电职业技术学院</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>45239556</t>
+  </si>
+  <si>
+    <t>音羽結弦</t>
+  </si>
+  <si>
+    <t>2021-05-10 23:22:51</t>
+  </si>
+  <si>
+    <t>开封技师学院</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>39686959</t>
+  </si>
+  <si>
+    <t>圣天魔酷</t>
+  </si>
+  <si>
+    <t>2021-05-10 23:34:52</t>
+  </si>
+  <si>
+    <t>回复 @__星海 :同十二小时，一小时9块多[嗑瓜子]我们学校老牛逼了</t>
+  </si>
+  <si>
     <t>132</t>
-  </si>
-  <si>
-    <t>45239556</t>
-  </si>
-  <si>
-    <t>音羽結弦</t>
-  </si>
-  <si>
-    <t>2021-05-10 23:22:51</t>
-  </si>
-  <si>
-    <t>开封技师学院</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>39686959</t>
-  </si>
-  <si>
-    <t>圣天魔酷</t>
-  </si>
-  <si>
-    <t>2021-05-10 23:34:52</t>
-  </si>
-  <si>
-    <t>回复 @__星海 :同十二小时，一小时9块多[嗑瓜子]我们学校老牛逼了</t>
-  </si>
-  <si>
-    <t>134</t>
   </si>
   <si>
     <t>168670992</t>
@@ -1329,24 +1299,24 @@
 不是类似，是确确实实每年都会把毕业生麦厂里去三四个月，压毕业证。[无语]</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>388092696</t>
+  </si>
+  <si>
+    <t>一米Ym</t>
+  </si>
+  <si>
+    <t>2021-05-11 01:35:12</t>
+  </si>
+  <si>
+    <t>武进职业教育中心校</t>
+  </si>
+  <si>
     <t>135</t>
   </si>
   <si>
-    <t>388092696</t>
-  </si>
-  <si>
-    <t>一米Ym</t>
-  </si>
-  <si>
-    <t>2021-05-11 01:35:12</t>
-  </si>
-  <si>
-    <t>武进职业教育中心校</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
     <t>290572325</t>
   </si>
   <si>
@@ -1359,7 +1329,7 @@
     <t>漳州理工职业学院</t>
   </si>
   <si>
-    <t>140</t>
+    <t>138</t>
   </si>
   <si>
     <t>2021-05-11 07:55:07</t>
@@ -1368,7 +1338,7 @@
     <t>回复 @言与不言 :智能制造学院(以前叫机电学院)除了汽修还是汽营那个专业不用去，其他全都得去</t>
   </si>
   <si>
-    <t>141</t>
+    <t>139</t>
   </si>
   <si>
     <t>48971686</t>
@@ -1386,7 +1356,7 @@
 如果没有就算了</t>
   </si>
   <si>
-    <t>142</t>
+    <t>140</t>
   </si>
   <si>
     <t>34255425</t>
@@ -1402,54 +1372,54 @@
 渤海理工职业学院</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>43656522</t>
+  </si>
+  <si>
+    <t>转身灬淚成</t>
+  </si>
+  <si>
+    <t>2021-05-11 11:43:21</t>
+  </si>
+  <si>
+    <t>宜阳县职业教育中心</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>117536178</t>
+  </si>
+  <si>
+    <t>桃花改</t>
+  </si>
+  <si>
+    <t>2021-05-11 12:21:56</t>
+  </si>
+  <si>
+    <t>四川城市职业学院</t>
+  </si>
+  <si>
     <t>144</t>
   </si>
   <si>
-    <t>43656522</t>
-  </si>
-  <si>
-    <t>转身灬淚成</t>
-  </si>
-  <si>
-    <t>2021-05-11 11:43:21</t>
-  </si>
-  <si>
-    <t>宜阳县职业教育中心</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>117536178</t>
-  </si>
-  <si>
-    <t>桃花改</t>
-  </si>
-  <si>
-    <t>2021-05-11 12:21:56</t>
-  </si>
-  <si>
-    <t>四川城市职业学院</t>
+    <t>178961871</t>
+  </si>
+  <si>
+    <t>4-Answer</t>
+  </si>
+  <si>
+    <t>2021-05-11 12:27:47</t>
+  </si>
+  <si>
+    <t>吴汉良理工学校</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>178961871</t>
-  </si>
-  <si>
-    <t>4-Answer</t>
-  </si>
-  <si>
-    <t>2021-05-11 12:27:47</t>
-  </si>
-  <si>
-    <t>吴汉良理工学校</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
     <t>400643716</t>
   </si>
   <si>
@@ -1462,36 +1432,36 @@
     <t>兰州职业技术学院</t>
   </si>
   <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>351534815</t>
+  </si>
+  <si>
+    <t>九宇天翔</t>
+  </si>
+  <si>
+    <t>2021-05-11 22:08:39</t>
+  </si>
+  <si>
+    <t>河南机电职业技术学校</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>351534815</t>
-  </si>
-  <si>
-    <t>九宇天翔</t>
-  </si>
-  <si>
-    <t>2021-05-11 22:08:39</t>
-  </si>
-  <si>
-    <t>河南机电职业技术学校</t>
+    <t>354787259</t>
+  </si>
+  <si>
+    <t>彭腾飞</t>
+  </si>
+  <si>
+    <t>2021-05-12 10:16:42</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>354787259</t>
-  </si>
-  <si>
-    <t>彭腾飞</t>
-  </si>
-  <si>
-    <t>2021-05-12 10:16:42</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
     <t>94002204</t>
   </si>
   <si>
@@ -1504,7 +1474,7 @@
     <t>安徽电子信息职业技术学院，评论不要消失啊啊啊！</t>
   </si>
   <si>
-    <t>157</t>
+    <t>155</t>
   </si>
   <si>
     <t>249478058</t>
@@ -1519,249 +1489,249 @@
     <t>飞毛腿高级技师学院</t>
   </si>
   <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>2021-05-14 08:49:23</t>
+  </si>
+  <si>
+    <t>长征出发地某服装学校[doge]</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>383822855</t>
+  </si>
+  <si>
+    <t>楼船夜歌</t>
+  </si>
+  <si>
+    <t>2021-05-15 13:19:52</t>
+  </si>
+  <si>
+    <t>湖北生态工程职业技术学院</t>
+  </si>
+  <si>
     <t>162</t>
   </si>
   <si>
-    <t>2021-05-14 08:49:23</t>
-  </si>
-  <si>
-    <t>长征出发地某服装学校[doge]</t>
+    <t>24778276</t>
+  </si>
+  <si>
+    <t>骱閾鳙鱼</t>
+  </si>
+  <si>
+    <t>2021-05-16 11:43:49</t>
+  </si>
+  <si>
+    <t>成都航空职业技术学院</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>383822855</t>
-  </si>
-  <si>
-    <t>楼船夜歌</t>
-  </si>
-  <si>
-    <t>2021-05-15 13:19:52</t>
-  </si>
-  <si>
-    <t>湖北生态工程职业技术学院</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>24778276</t>
-  </si>
-  <si>
-    <t>骱閾鳙鱼</t>
-  </si>
-  <si>
-    <t>2021-05-16 11:43:49</t>
-  </si>
-  <si>
-    <t>成都航空职业技术学院</t>
+    <t>228861190</t>
+  </si>
+  <si>
+    <t>码柴</t>
+  </si>
+  <si>
+    <t>2021-05-16 12:00:26</t>
+  </si>
+  <si>
+    <t>丽水市技工学校，我们那教学楼都是学生挣钱建的...</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>228861190</t>
-  </si>
-  <si>
-    <t>码柴</t>
-  </si>
-  <si>
-    <t>2021-05-16 12:00:26</t>
-  </si>
-  <si>
-    <t>丽水市技工学校，我们那教学楼都是学生挣钱建的...</t>
+    <t>385469173</t>
+  </si>
+  <si>
+    <t>风花雪月232</t>
+  </si>
+  <si>
+    <t>2021-05-18 09:13:48</t>
+  </si>
+  <si>
+    <t>回复 @轻提如梦 :问下阁下，这个学校是哪个地方的？太和？[喜极而泣]</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>385469173</t>
-  </si>
-  <si>
-    <t>风花雪月232</t>
-  </si>
-  <si>
-    <t>2021-05-18 09:13:48</t>
-  </si>
-  <si>
-    <t>回复 @轻提如梦 :问下阁下，这个学校是哪个地方的？太和？[喜极而泣]</t>
+    <t>2021-05-18 10:55:51</t>
+  </si>
+  <si>
+    <t>回复 @风花雪月232 :安徽电子信息职业技术学院是在安徽省蚌埠市，评论不要再消失啦ヽ(≧Д≦)ノ！</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>374786242</t>
+  </si>
+  <si>
+    <t>Bili_374786242</t>
+  </si>
+  <si>
+    <t>2021-05-18 11:10:28</t>
+  </si>
+  <si>
+    <t>回复 @爆米花真的皮 :震惊！我广西中医药毕业3年了，除了回家实习的1年，待在南宁4年从来不知道还有你这学校</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>2021-05-18 10:55:51</t>
-  </si>
-  <si>
-    <t>回复 @风花雪月232 :安徽电子信息职业技术学院是在安徽省蚌埠市，评论不要再消失啦ヽ(≧Д≦)ノ！</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>374786242</t>
-  </si>
-  <si>
-    <t>Bili_374786242</t>
-  </si>
-  <si>
-    <t>2021-05-18 11:10:28</t>
-  </si>
-  <si>
-    <t>回复 @爆米花真的皮 :震惊！我广西中医药毕业3年了，除了回家实习的1年，待在南宁4年从来不知道还有你这学校</t>
+    <t>277011736</t>
+  </si>
+  <si>
+    <t>パナマは</t>
+  </si>
+  <si>
+    <t>2021-05-18 11:44:45</t>
+  </si>
+  <si>
+    <t>郑州电子信息职业技术学院</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>277011736</t>
-  </si>
-  <si>
-    <t>パナマは</t>
-  </si>
-  <si>
-    <t>2021-05-18 11:44:45</t>
-  </si>
-  <si>
-    <t>郑州电子信息职业技术学院</t>
+    <t>396077270</t>
+  </si>
+  <si>
+    <t>昊天丶君</t>
+  </si>
+  <si>
+    <t>2021-05-18 20:21:24</t>
+  </si>
+  <si>
+    <t>回复 @呢莫专业的 :哈哈哈哈哈哈哈哈个一个月学校的，这个星期实习去了还好我跑了</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>396077270</t>
-  </si>
-  <si>
-    <t>昊天丶君</t>
-  </si>
-  <si>
-    <t>2021-05-18 20:21:24</t>
-  </si>
-  <si>
-    <t>回复 @呢莫专业的 :哈哈哈哈哈哈哈哈个一个月学校的，这个星期实习去了还好我跑了</t>
+    <t>477004430</t>
+  </si>
+  <si>
+    <t>HHeeeee何</t>
+  </si>
+  <si>
+    <t>2021-05-18 21:46:11</t>
+  </si>
+  <si>
+    <t>永新职业技术学校</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>290881250</t>
+  </si>
+  <si>
+    <t>zrezw</t>
+  </si>
+  <si>
+    <t>2021-05-18 23:12:38</t>
   </si>
   <si>
     <t>176</t>
   </si>
   <si>
-    <t>477004430</t>
-  </si>
-  <si>
-    <t>HHeeeee何</t>
-  </si>
-  <si>
-    <t>2021-05-18 21:46:11</t>
-  </si>
-  <si>
-    <t>永新职业技术学校</t>
+    <t>473885143</t>
+  </si>
+  <si>
+    <t>司马老猪</t>
+  </si>
+  <si>
+    <t>2021-05-19 04:32:35</t>
+  </si>
+  <si>
+    <t>广西梧州农业学校</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>290881250</t>
-  </si>
-  <si>
-    <t>zrezw</t>
-  </si>
-  <si>
-    <t>2021-05-18 23:12:38</t>
+    <t>44653527</t>
+  </si>
+  <si>
+    <t>再见了星河</t>
+  </si>
+  <si>
+    <t>2021-05-19 05:39:01</t>
+  </si>
+  <si>
+    <t>余庆职业中学</t>
   </si>
   <si>
     <t>178</t>
   </si>
   <si>
-    <t>473885143</t>
-  </si>
-  <si>
-    <t>司马老猪</t>
-  </si>
-  <si>
-    <t>2021-05-19 04:32:35</t>
-  </si>
-  <si>
-    <t>广西梧州农业学校</t>
+    <t>388067365</t>
+  </si>
+  <si>
+    <t>48101460145_bili</t>
+  </si>
+  <si>
+    <t>2021-05-19 07:03:56</t>
+  </si>
+  <si>
+    <t>江西省赣州市育才职业技术学院</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>44653527</t>
-  </si>
-  <si>
-    <t>再见了星河</t>
-  </si>
-  <si>
-    <t>2021-05-19 05:39:01</t>
-  </si>
-  <si>
-    <t>余庆职业中学</t>
+    <t>255952302</t>
+  </si>
+  <si>
+    <t>杨志放</t>
+  </si>
+  <si>
+    <t>2021-05-19 12:25:04</t>
+  </si>
+  <si>
+    <t>德阳电子科技学校</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>388067365</t>
-  </si>
-  <si>
-    <t>48101460145_bili</t>
-  </si>
-  <si>
-    <t>2021-05-19 07:03:56</t>
-  </si>
-  <si>
-    <t>江西省赣州市育才职业技术学院</t>
+    <t>260583002</t>
+  </si>
+  <si>
+    <t>biiliibiiiii</t>
+  </si>
+  <si>
+    <t>2021-05-19 15:51:44</t>
+  </si>
+  <si>
+    <t>你应该收集不这么干的学校</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>255952302</t>
-  </si>
-  <si>
-    <t>杨志放</t>
-  </si>
-  <si>
-    <t>2021-05-19 12:25:04</t>
-  </si>
-  <si>
-    <t>德阳电子科技学校</t>
+    <t>385721207</t>
+  </si>
+  <si>
+    <t>我为少爷氪过金</t>
+  </si>
+  <si>
+    <t>2021-05-19 20:01:47</t>
+  </si>
+  <si>
+    <t>回复 @干饭睡觉长得骠 :？！我填了这个学校志愿[热词系列_知识增加]</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>260583002</t>
-  </si>
-  <si>
-    <t>biiliibiiiii</t>
-  </si>
-  <si>
-    <t>2021-05-19 15:51:44</t>
-  </si>
-  <si>
-    <t>你应该收集不这么干的学校</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>385721207</t>
-  </si>
-  <si>
-    <t>我为少爷氪过金</t>
-  </si>
-  <si>
-    <t>2021-05-19 20:01:47</t>
-  </si>
-  <si>
-    <t>回复 @干饭睡觉长得骠 :？！我填了这个学校志愿[热词系列_知识增加]</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
     <t>320258229</t>
   </si>
   <si>
@@ -1774,168 +1744,168 @@
     <t>永州职业技术学院</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>337386662</t>
+  </si>
+  <si>
+    <t>町枝枝你好呀</t>
+  </si>
+  <si>
+    <t>2021-05-20 11:50:26</t>
+  </si>
+  <si>
+    <t>四川职业技术学院</t>
+  </si>
+  <si>
     <t>188</t>
   </si>
   <si>
-    <t>337386662</t>
-  </si>
-  <si>
-    <t>町枝枝你好呀</t>
-  </si>
-  <si>
-    <t>2021-05-20 11:50:26</t>
-  </si>
-  <si>
-    <t>四川职业技术学院</t>
+    <t>122452495</t>
+  </si>
+  <si>
+    <t>01似水流年</t>
+  </si>
+  <si>
+    <t>2021-05-20 12:56:47</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>122452495</t>
-  </si>
-  <si>
-    <t>01似水流年</t>
-  </si>
-  <si>
-    <t>2021-05-20 12:56:47</t>
+    <t>389067269</t>
+  </si>
+  <si>
+    <t>痕忆mosda</t>
+  </si>
+  <si>
+    <t>2021-05-21 08:47:53</t>
+  </si>
+  <si>
+    <t>广西机电技师学院</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>399746710</t>
+  </si>
+  <si>
+    <t>梓曦瞳</t>
+  </si>
+  <si>
+    <t>2021-05-21 16:16:36</t>
+  </si>
+  <si>
+    <t>黄冈职业技术学院</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>389067269</t>
-  </si>
-  <si>
-    <t>痕忆mosda</t>
-  </si>
-  <si>
-    <t>2021-05-21 08:47:53</t>
-  </si>
-  <si>
-    <t>广西机电技师学院</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>399746710</t>
-  </si>
-  <si>
-    <t>梓曦瞳</t>
-  </si>
-  <si>
-    <t>2021-05-21 16:16:36</t>
-  </si>
-  <si>
-    <t>黄冈职业技术学院</t>
+    <t>490837045</t>
+  </si>
+  <si>
+    <t>无人问津の辣条</t>
+  </si>
+  <si>
+    <t>2021-05-21 16:59:15</t>
+  </si>
+  <si>
+    <t>昌吉州职业技术学院</t>
   </si>
   <si>
     <t>194</t>
   </si>
   <si>
-    <t>490837045</t>
-  </si>
-  <si>
-    <t>无人问津の辣条</t>
-  </si>
-  <si>
-    <t>2021-05-21 16:59:15</t>
-  </si>
-  <si>
-    <t>昌吉州职业技术学院</t>
+    <t>357743648</t>
+  </si>
+  <si>
+    <t>十五秦瑟</t>
+  </si>
+  <si>
+    <t>2021-05-22 12:38:36</t>
+  </si>
+  <si>
+    <t>东莞南华职业技术学校[微笑]</t>
   </si>
   <si>
     <t>196</t>
   </si>
   <si>
-    <t>357743648</t>
-  </si>
-  <si>
-    <t>十五秦瑟</t>
-  </si>
-  <si>
-    <t>2021-05-22 12:38:36</t>
-  </si>
-  <si>
-    <t>东莞南华职业技术学校[微笑]</t>
+    <t>397611541</t>
+  </si>
+  <si>
+    <t>凯美瑞也睡了</t>
+  </si>
+  <si>
+    <t>2021-05-22 15:38:37</t>
+  </si>
+  <si>
+    <t>廉江兴华职业技术学习</t>
   </si>
   <si>
     <t>198</t>
   </si>
   <si>
-    <t>397611541</t>
-  </si>
-  <si>
-    <t>凯美瑞也睡了</t>
-  </si>
-  <si>
-    <t>2021-05-22 15:38:37</t>
-  </si>
-  <si>
-    <t>廉江兴华职业技术学习</t>
+    <t>20156879</t>
+  </si>
+  <si>
+    <t>邪王契约使</t>
+  </si>
+  <si>
+    <t>2021-05-22 18:02:02</t>
+  </si>
+  <si>
+    <t>韶关市技师学院</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>344413984</t>
+  </si>
+  <si>
+    <t>安在゜</t>
+  </si>
+  <si>
+    <t>2021-05-22 18:14:44</t>
+  </si>
+  <si>
+    <t>甘肃林业职业技术学院</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t>20156879</t>
-  </si>
-  <si>
-    <t>邪王契约使</t>
-  </si>
-  <si>
-    <t>2021-05-22 18:02:02</t>
-  </si>
-  <si>
-    <t>韶关市技师学院</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>344413984</t>
-  </si>
-  <si>
-    <t>安在゜</t>
-  </si>
-  <si>
-    <t>2021-05-22 18:14:44</t>
-  </si>
-  <si>
-    <t>甘肃林业职业技术学院</t>
+    <t>417132936</t>
+  </si>
+  <si>
+    <t>孤梅雪立</t>
+  </si>
+  <si>
+    <t>2021-05-22 18:24:17</t>
+  </si>
+  <si>
+    <t>重庆市工业技师学院</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>417132936</t>
-  </si>
-  <si>
-    <t>孤梅雪立</t>
-  </si>
-  <si>
-    <t>2021-05-22 18:24:17</t>
-  </si>
-  <si>
-    <t>重庆市工业技师学院</t>
+    <t>518819170</t>
+  </si>
+  <si>
+    <t>天羽风飞</t>
+  </si>
+  <si>
+    <t>2021-05-22 18:42:12</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>518819170</t>
-  </si>
-  <si>
-    <t>天羽风飞</t>
-  </si>
-  <si>
-    <t>2021-05-22 18:42:12</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
     <t>415154174</t>
   </si>
   <si>
@@ -1948,7 +1918,7 @@
     <t>贵阳电子职业学校</t>
   </si>
   <si>
-    <t>208</t>
+    <t>206</t>
   </si>
   <si>
     <t>388848458</t>
@@ -1963,208 +1933,208 @@
     <t>盐步职业技术学校</t>
   </si>
   <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>550891079</t>
+  </si>
+  <si>
+    <t>迪大王</t>
+  </si>
+  <si>
+    <t>2021-05-23 08:15:54</t>
+  </si>
+  <si>
+    <t>鹤壁汽车工程职业学院</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>1021334241</t>
+  </si>
+  <si>
+    <t>老子要学习要成功</t>
+  </si>
+  <si>
+    <t>2021-05-23 08:30:30</t>
+  </si>
+  <si>
+    <t>茂名市第一职业技术学校</t>
+  </si>
+  <si>
     <t>211</t>
   </si>
   <si>
-    <t>550891079</t>
-  </si>
-  <si>
-    <t>迪大王</t>
-  </si>
-  <si>
-    <t>2021-05-23 08:15:54</t>
-  </si>
-  <si>
-    <t>鹤壁汽车工程职业学院</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>1021334241</t>
-  </si>
-  <si>
-    <t>老子要学习要成功</t>
-  </si>
-  <si>
-    <t>2021-05-23 08:30:30</t>
-  </si>
-  <si>
-    <t>茂名市第一职业技术学校</t>
+    <t>160326683</t>
+  </si>
+  <si>
+    <t>十七亿少女的心</t>
+  </si>
+  <si>
+    <t>2021-05-23 09:52:37</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
-    <t>160326683</t>
-  </si>
-  <si>
-    <t>十七亿少女的心</t>
-  </si>
-  <si>
-    <t>2021-05-23 09:52:37</t>
+    <t>74092622</t>
+  </si>
+  <si>
+    <t>Commissar-Stefan</t>
+  </si>
+  <si>
+    <t>2021-05-23 11:18:14</t>
+  </si>
+  <si>
+    <t>回复 @择一幕终了 :回复 @择一幕终了 :卧槽，徐州还有这个学校[笑哭]我当了20多年徐州人都不知道</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>477089271</t>
+  </si>
+  <si>
+    <t>陈某在梦游</t>
+  </si>
+  <si>
+    <t>2021-05-23 11:53:04</t>
   </si>
   <si>
     <t>215</t>
   </si>
   <si>
-    <t>74092622</t>
-  </si>
-  <si>
-    <t>Commissar-Stefan</t>
-  </si>
-  <si>
-    <t>2021-05-23 11:18:14</t>
-  </si>
-  <si>
-    <t>回复 @择一幕终了 :回复 @择一幕终了 :卧槽，徐州还有这个学校[笑哭]我当了20多年徐州人都不知道</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>477089271</t>
-  </si>
-  <si>
-    <t>陈某在梦游</t>
-  </si>
-  <si>
-    <t>2021-05-23 11:53:04</t>
+    <t>51640426</t>
+  </si>
+  <si>
+    <t>透过啊</t>
+  </si>
+  <si>
+    <t>2021-05-23 12:01:07</t>
+  </si>
+  <si>
+    <t>安徽外国语学院、合肥信息职业技术学院，合肥财经学院</t>
   </si>
   <si>
     <t>217</t>
   </si>
   <si>
-    <t>51640426</t>
-  </si>
-  <si>
-    <t>透过啊</t>
-  </si>
-  <si>
-    <t>2021-05-23 12:01:07</t>
-  </si>
-  <si>
-    <t>安徽外国语学院、合肥信息职业技术学院，合肥财经学院</t>
+    <t>35587630</t>
+  </si>
+  <si>
+    <t>Ikiss_皇族</t>
+  </si>
+  <si>
+    <t>2021-05-23 12:17:10</t>
   </si>
   <si>
     <t>219</t>
   </si>
   <si>
-    <t>35587630</t>
-  </si>
-  <si>
-    <t>Ikiss_皇族</t>
-  </si>
-  <si>
-    <t>2021-05-23 12:17:10</t>
+    <t>363311086</t>
+  </si>
+  <si>
+    <t>洛神花开过的季节</t>
+  </si>
+  <si>
+    <t>2021-05-23 13:21:19</t>
+  </si>
+  <si>
+    <t>以前在民办四川天一学院（一个专科学校）当过一段时间老师，他们学校和集团下属的兄弟学校都是强制学生去工厂，还在打工期间死过几个学生，特别造孽，然后把学生进工厂打工算成就业率，某辅导员工作期间口述[吃瓜][吃瓜]</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>379742660</t>
+  </si>
+  <si>
+    <t>肥宅192</t>
+  </si>
+  <si>
+    <t>2021-05-23 13:32:26</t>
+  </si>
+  <si>
+    <t>广西桂林机电职业技术学校</t>
   </si>
   <si>
     <t>221</t>
   </si>
   <si>
-    <t>363311086</t>
-  </si>
-  <si>
-    <t>洛神花开过的季节</t>
-  </si>
-  <si>
-    <t>2021-05-23 13:21:19</t>
-  </si>
-  <si>
-    <t>以前在民办四川天一学院（一个专科学校）当过一段时间老师，他们学校和集团下属的兄弟学校都是强制学生去工厂，还在打工期间死过几个学生，特别造孽，然后把学生进工厂打工算成就业率，某辅导员工作期间口述[吃瓜][吃瓜]</t>
+    <t>2021-05-23 13:33:54</t>
+  </si>
+  <si>
+    <t>回复 @聋哑毕业天山星泰罗 :这个是广西啥地方的学校[思考]</t>
   </si>
   <si>
     <t>222</t>
   </si>
   <si>
-    <t>379742660</t>
-  </si>
-  <si>
-    <t>肥宅192</t>
-  </si>
-  <si>
-    <t>2021-05-23 13:32:26</t>
-  </si>
-  <si>
-    <t>广西桂林机电职业技术学校</t>
+    <t>350046546</t>
+  </si>
+  <si>
+    <t>缘之__</t>
+  </si>
+  <si>
+    <t>2021-05-23 13:45:44</t>
   </si>
   <si>
     <t>223</t>
   </si>
   <si>
-    <t>2021-05-23 13:33:54</t>
-  </si>
-  <si>
-    <t>回复 @聋哑毕业天山星泰罗 :这个是广西啥地方的学校[思考]</t>
+    <t>77243394</t>
+  </si>
+  <si>
+    <t>LLHX_fyl</t>
+  </si>
+  <si>
+    <t>2021-05-23 15:15:15</t>
+  </si>
+  <si>
+    <t>北海职业学院[微笑]</t>
   </si>
   <si>
     <t>224</t>
   </si>
   <si>
-    <t>350046546</t>
-  </si>
-  <si>
-    <t>缘之__</t>
-  </si>
-  <si>
-    <t>2021-05-23 13:45:44</t>
+    <t>220982490</t>
+  </si>
+  <si>
+    <t>谁用我昵称谁是我老婆</t>
+  </si>
+  <si>
+    <t>2021-05-23 15:31:22</t>
+  </si>
+  <si>
+    <t>安徽电气工程学校</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>77243394</t>
-  </si>
-  <si>
-    <t>LLHX_fyl</t>
-  </si>
-  <si>
-    <t>2021-05-23 15:15:15</t>
-  </si>
-  <si>
-    <t>北海职业学院[微笑]</t>
+    <t>2021-05-23 15:33:38</t>
+  </si>
+  <si>
+    <t>回复 @消失的情感 :所以说拿毕业证来要挟学生，学校按人头拿钱就对了?你是老师派来卧底是吧[星星眼]</t>
   </si>
   <si>
     <t>226</t>
   </si>
   <si>
-    <t>220982490</t>
-  </si>
-  <si>
-    <t>谁用我昵称谁是我老婆</t>
-  </si>
-  <si>
-    <t>2021-05-23 15:31:22</t>
-  </si>
-  <si>
-    <t>安徽电气工程学校</t>
+    <t>15101999</t>
+  </si>
+  <si>
+    <t>Mr影鳄鳄</t>
+  </si>
+  <si>
+    <t>2021-05-23 18:31:28</t>
+  </si>
+  <si>
+    <t>还好我们是随便找的，学校也能安排，但我们这个专业基本都是去当老师，只要家里或者。同学家里有个厂，是个个体户，有个经营执照，盖个章都行</t>
   </si>
   <si>
     <t>227</t>
-  </si>
-  <si>
-    <t>2021-05-23 15:33:38</t>
-  </si>
-  <si>
-    <t>回复 @消失的情感 :所以说拿毕业证来要挟学生，学校按人头拿钱就对了?你是老师派来卧底是吧[星星眼]</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>15101999</t>
-  </si>
-  <si>
-    <t>Mr影鳄鳄</t>
-  </si>
-  <si>
-    <t>2021-05-23 18:31:28</t>
-  </si>
-  <si>
-    <t>还好我们是随便找的，学校也能安排，但我们这个专业基本都是去当老师，只要家里或者。同学家里有个厂，是个个体户，有个经营执照，盖个章都行</t>
-  </si>
-  <si>
-    <t>229</t>
   </si>
   <si>
     <t>289894130</t>
@@ -2180,84 +2150,84 @@
 快毕业没有实习单位的统一去工厂里实习，除非你专升本，自主择业都困难重重让你先去厂里</t>
   </si>
   <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>361434158</t>
+  </si>
+  <si>
+    <t>污嘤神</t>
+  </si>
+  <si>
+    <t>2021-05-23 19:27:37</t>
+  </si>
+  <si>
+    <t>回复 @小爱oo :不是所有的职校，我读职校是有招聘会，，我读的专业是有个公司缺人要了一个，让我们去面试意思一下，跟学校合作的，可以不去，自己找，毕业的时候实习报告上有个公司的章签名啥的就行，我们班留那个公司的都没有几个，不过走的都是觉得待遇制度不好，其实就幸存者偏差</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>372217647</t>
+  </si>
+  <si>
+    <t>blbl368</t>
+  </si>
+  <si>
+    <t>2021-05-23 20:57:47</t>
+  </si>
+  <si>
+    <t>福建华夏高级技工学校</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>361434158</t>
-  </si>
-  <si>
-    <t>污嘤神</t>
-  </si>
-  <si>
-    <t>2021-05-23 19:27:37</t>
-  </si>
-  <si>
-    <t>回复 @小爱oo :不是所有的职校，我读职校是有招聘会，，我读的专业是有个公司缺人要了一个，让我们去面试意思一下，跟学校合作的，可以不去，自己找，毕业的时候实习报告上有个公司的章签名啥的就行，我们班留那个公司的都没有几个，不过走的都是觉得待遇制度不好，其实就幸存者偏差</t>
+    <t>358815189</t>
+  </si>
+  <si>
+    <t>东方考拉熊</t>
+  </si>
+  <si>
+    <t>2021-05-23 22:18:58</t>
+  </si>
+  <si>
+    <t>冷水江市高级技工学校</t>
   </si>
   <si>
     <t>233</t>
   </si>
   <si>
-    <t>372217647</t>
-  </si>
-  <si>
-    <t>blbl368</t>
-  </si>
-  <si>
-    <t>2021-05-23 20:57:47</t>
-  </si>
-  <si>
-    <t>福建华夏高级技工学校</t>
+    <t>43920909</t>
+  </si>
+  <si>
+    <t>井宿_</t>
+  </si>
+  <si>
+    <t>2021-05-23 23:45:43</t>
+  </si>
+  <si>
+    <t>益阳职业技术学院</t>
   </si>
   <si>
     <t>234</t>
   </si>
   <si>
-    <t>358815189</t>
-  </si>
-  <si>
-    <t>东方考拉熊</t>
-  </si>
-  <si>
-    <t>2021-05-23 22:18:58</t>
-  </si>
-  <si>
-    <t>冷水江市高级技工学校</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>43920909</t>
-  </si>
-  <si>
-    <t>井宿_</t>
-  </si>
-  <si>
-    <t>2021-05-23 23:45:43</t>
-  </si>
-  <si>
-    <t>益阳职业技术学院</t>
+    <t>56655184</t>
+  </si>
+  <si>
+    <t>两面包夹热狗芝士</t>
+  </si>
+  <si>
+    <t>2021-05-24 12:40:47</t>
+  </si>
+  <si>
+    <t>武汉铁路技师学院</t>
   </si>
   <si>
     <t>236</t>
   </si>
   <si>
-    <t>56655184</t>
-  </si>
-  <si>
-    <t>两面包夹热狗芝士</t>
-  </si>
-  <si>
-    <t>2021-05-24 12:40:47</t>
-  </si>
-  <si>
-    <t>武汉铁路技师学院</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
     <t>34708744</t>
   </si>
   <si>
@@ -2270,21 +2240,21 @@
     <t>上饶职业技术学院</t>
   </si>
   <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>32685153</t>
+  </si>
+  <si>
+    <t>山西工业大学</t>
+  </si>
+  <si>
+    <t>2021-05-25 00:11:48</t>
+  </si>
+  <si>
     <t>242</t>
   </si>
   <si>
-    <t>32685153</t>
-  </si>
-  <si>
-    <t>山西工业大学</t>
-  </si>
-  <si>
-    <t>2021-05-25 00:11:48</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
     <t>284831508</t>
   </si>
   <si>
@@ -2297,7 +2267,7 @@
     <t>带“职业”二字的学校</t>
   </si>
   <si>
-    <t>245</t>
+    <t>244</t>
   </si>
   <si>
     <t>240790008</t>
@@ -2312,7 +2282,7 @@
     <t>虽然难听，但感觉这里挺多广西的学校的</t>
   </si>
   <si>
-    <t>247</t>
+    <t>246</t>
   </si>
   <si>
     <t>2394997</t>
@@ -2327,37 +2297,37 @@
     <t>回复 @振宇一个 :我是广西职业技术学院的，学校还是蛮正规良心的</t>
   </si>
   <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>321654364</t>
+  </si>
+  <si>
+    <t>手亿人</t>
+  </si>
+  <si>
+    <t>2021-05-25 12:44:14</t>
+  </si>
+  <si>
+    <t>重庆渝北职业教育中心</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>388610095</t>
+  </si>
+  <si>
+    <t>Casualed</t>
+  </si>
+  <si>
+    <t>2021-05-25 13:18:11</t>
+  </si>
+  <si>
+    <t>南昌理工学院</t>
+  </si>
+  <si>
     <t>254</t>
-  </si>
-  <si>
-    <t>321654364</t>
-  </si>
-  <si>
-    <t>手亿人</t>
-  </si>
-  <si>
-    <t>2021-05-25 12:44:14</t>
-  </si>
-  <si>
-    <t>重庆渝北职业教育中心</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>388610095</t>
-  </si>
-  <si>
-    <t>Casualed</t>
-  </si>
-  <si>
-    <t>2021-05-25 13:18:11</t>
-  </si>
-  <si>
-    <t>南昌理工学院</t>
-  </si>
-  <si>
-    <t>256</t>
   </si>
   <si>
     <t>626183934</t>
@@ -2374,7 +2344,7 @@
 这个学校隔几年就换名字，换了名字重新骗人，招生手册说的“毕业介绍工资5000以上”，“在校各专业有车间实操”，，全是吹牛皮，每天教室坐着耍，老师不讲课，没有实操课(学校担心学生把器材给他弄坏，器材室永远锁着门，只有招生的时候说的天花乱坠，说会提供给学生大量实操经验)，辅导员让你交钱给他，他保你不挂科，不交钱的，，，学校隔三差五组织各种活动，强制交费，快毕业了辅导员各种方式卡学生资料档案，不给钱他就不给通过，各种需要经他手的文件之类，他都会隐晦的让你给钱，毕业之后帮忙代领毕业证，没有300以上不行(本人是自己回去领的，被压榨了几年，宁可自己亏路费去拿，也不给他赚)，至此脱离“扒皮吸血学校”，心情大好</t>
   </si>
   <si>
-    <t>257</t>
+    <t>255</t>
   </si>
   <si>
     <t>2021-05-25 13:28:07</t>
@@ -2384,7 +2354,7 @@
 学校名字经常改，地址变不了</t>
   </si>
   <si>
-    <t>258</t>
+    <t>256</t>
   </si>
   <si>
     <t>2021-05-25 13:42:08</t>
@@ -2393,24 +2363,24 @@
     <t>老实说这学校如果不强制要求学生打工的话，还是不错的</t>
   </si>
   <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>98799862</t>
+  </si>
+  <si>
+    <t>找我干啥啊</t>
+  </si>
+  <si>
+    <t>2021-05-25 15:02:05</t>
+  </si>
+  <si>
+    <t>茂名高州第一技工学校</t>
+  </si>
+  <si>
     <t>259</t>
   </si>
   <si>
-    <t>98799862</t>
-  </si>
-  <si>
-    <t>找我干啥啊</t>
-  </si>
-  <si>
-    <t>2021-05-25 15:02:05</t>
-  </si>
-  <si>
-    <t>茂名高州第一技工学校</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
     <t>84441403</t>
   </si>
   <si>
@@ -2420,7 +2390,7 @@
     <t>2021-05-25 17:45:37</t>
   </si>
   <si>
-    <t>262</t>
+    <t>260</t>
   </si>
   <si>
     <t>86449783</t>
@@ -2435,39 +2405,39 @@
     <t>重庆市经贸中等专业学校</t>
   </si>
   <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>261241118</t>
+  </si>
+  <si>
+    <t>阿橙呐__</t>
+  </si>
+  <si>
+    <t>2021-05-25 22:22:39</t>
+  </si>
+  <si>
+    <t>无锡南洋职业技术学院</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>433283014</t>
+  </si>
+  <si>
+    <t>老虾米饺</t>
+  </si>
+  <si>
+    <t>2021-05-25 23:24:31</t>
+  </si>
+  <si>
+    <t>兰州信息科技学院</t>
+  </si>
+  <si>
     <t>265</t>
   </si>
   <si>
-    <t>261241118</t>
-  </si>
-  <si>
-    <t>阿橙呐__</t>
-  </si>
-  <si>
-    <t>2021-05-25 22:22:39</t>
-  </si>
-  <si>
-    <t>无锡南洋职业技术学院</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>433283014</t>
-  </si>
-  <si>
-    <t>老虾米饺</t>
-  </si>
-  <si>
-    <t>2021-05-25 23:24:31</t>
-  </si>
-  <si>
-    <t>兰州信息科技学院</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
     <t>91858067</t>
   </si>
   <si>
@@ -2480,69 +2450,69 @@
     <t>江西科技学院</t>
   </si>
   <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>2093038134</t>
+  </si>
+  <si>
+    <t>孤独的根九十九</t>
+  </si>
+  <si>
+    <t>2021-05-26 16:50:39</t>
+  </si>
+  <si>
+    <t>新乡职业技术学院，学的机电，被安排进了南昌海立，一天12小时，没有休息。刚来十几天，工资还没发过，所以不知道一小时多少钱。</t>
+  </si>
+  <si>
     <t>274</t>
   </si>
   <si>
-    <t>2093038134</t>
-  </si>
-  <si>
-    <t>孤独的根九十九</t>
-  </si>
-  <si>
-    <t>2021-05-26 16:50:39</t>
-  </si>
-  <si>
-    <t>新乡职业技术学院，学的机电，被安排进了南昌海立，一天12小时，没有休息。刚来十几天，工资还没发过，所以不知道一小时多少钱。</t>
+    <t>479766617</t>
+  </si>
+  <si>
+    <t>仙河领</t>
+  </si>
+  <si>
+    <t>2021-05-26 23:10:30</t>
+  </si>
+  <si>
+    <t>赣州现代科技职业学校</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>25415657</t>
+  </si>
+  <si>
+    <t>兮谛枫沁</t>
+  </si>
+  <si>
+    <t>2021-05-26 23:37:04</t>
+  </si>
+  <si>
+    <t>保定理工学院 本科，强制电子厂实习！！！</t>
   </si>
   <si>
     <t>276</t>
   </si>
   <si>
-    <t>479766617</t>
-  </si>
-  <si>
-    <t>仙河领</t>
-  </si>
-  <si>
-    <t>2021-05-26 23:10:30</t>
-  </si>
-  <si>
-    <t>赣州现代科技职业学校</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>25415657</t>
-  </si>
-  <si>
-    <t>兮谛枫沁</t>
-  </si>
-  <si>
-    <t>2021-05-26 23:37:04</t>
-  </si>
-  <si>
-    <t>保定理工学院 本科，强制电子厂实习！！！</t>
+    <t>104406354</t>
+  </si>
+  <si>
+    <t>浪仙御魂</t>
+  </si>
+  <si>
+    <t>2021-05-27 00:00:00</t>
+  </si>
+  <si>
+    <t>衡阳市职业中专学校</t>
   </si>
   <si>
     <t>278</t>
   </si>
   <si>
-    <t>104406354</t>
-  </si>
-  <si>
-    <t>浪仙御魂</t>
-  </si>
-  <si>
-    <t>2021-05-27 00:00:00</t>
-  </si>
-  <si>
-    <t>衡阳市职业中专学校</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
     <t>478887242</t>
   </si>
   <si>
@@ -2555,7 +2525,7 @@
     <t>青岛求实职业技术学院，我们是要么提前实习三个月，后续实习六个月，要么以后是实习九个月</t>
   </si>
   <si>
-    <t>281</t>
+    <t>279</t>
   </si>
   <si>
     <t>485716196</t>
@@ -2570,7 +2540,7 @@
     <t>盐城技师学院</t>
   </si>
   <si>
-    <t>285</t>
+    <t>283</t>
   </si>
   <si>
     <t>38905782</t>
@@ -2585,24 +2555,24 @@
     <t>昌吉学院  强制实习 没有任何工资  不去不给毕业证</t>
   </si>
   <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>86709113</t>
+  </si>
+  <si>
+    <t>空城旧梦syb</t>
+  </si>
+  <si>
+    <t>2021-05-28 11:29:03</t>
+  </si>
+  <si>
+    <t>回复 @渡鸦q :抱抱，我家住那个学校附近</t>
+  </si>
+  <si>
     <t>286</t>
   </si>
   <si>
-    <t>86709113</t>
-  </si>
-  <si>
-    <t>空城旧梦syb</t>
-  </si>
-  <si>
-    <t>2021-05-28 11:29:03</t>
-  </si>
-  <si>
-    <t>回复 @渡鸦q :抱抱，我家住那个学校附近</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
     <t>476702426</t>
   </si>
   <si>
@@ -2615,54 +2585,54 @@
     <t>江西科技职业学院</t>
   </si>
   <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>299104191</t>
+  </si>
+  <si>
+    <t>俩面北京四中</t>
+  </si>
+  <si>
+    <t>2021-05-29 11:08:44</t>
+  </si>
+  <si>
+    <t>扬州江海职业技术学院</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>380885309</t>
+  </si>
+  <si>
+    <t>dyaning</t>
+  </si>
+  <si>
+    <t>2021-05-29 11:53:15</t>
+  </si>
+  <si>
+    <t>郑州城轨中等专业职业学校</t>
+  </si>
+  <si>
     <t>293</t>
   </si>
   <si>
-    <t>299104191</t>
-  </si>
-  <si>
-    <t>暮江秋雨</t>
-  </si>
-  <si>
-    <t>2021-05-29 11:08:44</t>
-  </si>
-  <si>
-    <t>扬州江海职业技术学院</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>380885309</t>
-  </si>
-  <si>
-    <t>dyaning</t>
-  </si>
-  <si>
-    <t>2021-05-29 11:53:15</t>
-  </si>
-  <si>
-    <t>郑州城轨中等专业职业学校</t>
+    <t>407796265</t>
+  </si>
+  <si>
+    <t>布板狼鸭牙</t>
+  </si>
+  <si>
+    <t>2021-05-29 12:27:25</t>
+  </si>
+  <si>
+    <t>邵阳交通职业学校。</t>
   </si>
   <si>
     <t>295</t>
   </si>
   <si>
-    <t>407796265</t>
-  </si>
-  <si>
-    <t>布板狼鸭牙</t>
-  </si>
-  <si>
-    <t>2021-05-29 12:27:25</t>
-  </si>
-  <si>
-    <t>邵阳交通职业学校。</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
     <t>1834563839</t>
   </si>
   <si>
@@ -2675,7 +2645,7 @@
     <t>长春汽车工业高等专科学校，我们那会10小时是基础，有时候能加班到12个小时</t>
   </si>
   <si>
-    <t>298</t>
+    <t>296</t>
   </si>
   <si>
     <t>96398919</t>
@@ -2690,109 +2660,181 @@
     <t>回复 @孤独的根九十九 :不想干走就是了，学校不敢真不给毕业证。</t>
   </si>
   <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>252638351</t>
+  </si>
+  <si>
+    <t>这个铁憨憨</t>
+  </si>
+  <si>
+    <t>2021-05-31 11:54:20</t>
+  </si>
+  <si>
+    <t>齐齐哈尔工程学院[捂眼]</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>230275866</t>
+  </si>
+  <si>
+    <t>单推平泽唯</t>
+  </si>
+  <si>
+    <t>2021-05-31 12:49:04</t>
+  </si>
+  <si>
+    <t>深圳市 携创高级技工学校</t>
+  </si>
+  <si>
     <t>302</t>
   </si>
   <si>
-    <t>252638351</t>
-  </si>
-  <si>
-    <t>这个铁憨憨</t>
-  </si>
-  <si>
-    <t>2021-05-31 11:54:20</t>
-  </si>
-  <si>
-    <t>齐齐哈尔工程学院[捂眼]</t>
+    <t>387210303</t>
+  </si>
+  <si>
+    <t>老坡饼没老婆</t>
+  </si>
+  <si>
+    <t>2021-05-31 13:49:04</t>
+  </si>
+  <si>
+    <t>江苏淮安工业中等职业专业学校</t>
   </si>
   <si>
     <t>303</t>
   </si>
   <si>
-    <t>230275866</t>
-  </si>
-  <si>
-    <t>单推平泽唯</t>
-  </si>
-  <si>
-    <t>2021-05-31 12:49:04</t>
-  </si>
-  <si>
-    <t>深圳市 携创高级技工学校</t>
+    <t>504394380</t>
+  </si>
+  <si>
+    <t>VACATIONER</t>
+  </si>
+  <si>
+    <t>2021-06-01 23:44:36</t>
+  </si>
+  <si>
+    <t>奉新冶城职业学校 我这美丽的学校 三校综合 文化 技术 艺术 我读的文化 也是中考五百分进的学校 好家伙 高二一开学交完学费就被送去安徽某讯顶岗实习三个月 两个月的夜班 一个月白班 一个月最多三千六 还是一个月不休息 不能不去实习 或者中途回家 不然 毕业证威胁[支持]</t>
   </si>
   <si>
     <t>304</t>
   </si>
   <si>
-    <t>387210303</t>
-  </si>
-  <si>
-    <t>老坡饼没老婆</t>
-  </si>
-  <si>
-    <t>2021-05-31 13:49:04</t>
-  </si>
-  <si>
-    <t>江苏淮安工业中等职业专业学校</t>
+    <t>32422999</t>
+  </si>
+  <si>
+    <t>甘城なつき</t>
+  </si>
+  <si>
+    <t>2021-06-02 13:29:15</t>
+  </si>
+  <si>
+    <t>武汉光谷职业学院</t>
   </si>
   <si>
     <t>305</t>
   </si>
   <si>
-    <t>504394380</t>
-  </si>
-  <si>
-    <t>VACATIONER</t>
-  </si>
-  <si>
-    <t>2021-06-01 23:44:36</t>
-  </si>
-  <si>
-    <t>奉新冶城职业学校 我这美丽的学校 三校综合 文化 技术 艺术 我读的文化 也是中考五百分进的学校 好家伙 高二一开学交完学费就被送去安徽某讯顶岗实习三个月 两个月的夜班 一个月白班 一个月最多三千六 还是一个月不休息 不能不去实习 或者中途回家 不然 毕业证威胁[支持]</t>
+    <t>398830232</t>
+  </si>
+  <si>
+    <t>Minor_寂月</t>
+  </si>
+  <si>
+    <t>2021-06-02 13:48:56</t>
+  </si>
+  <si>
+    <t>河北科技学院</t>
   </si>
   <si>
     <t>306</t>
   </si>
   <si>
-    <t>32422999</t>
-  </si>
-  <si>
-    <t>甘城なつき</t>
-  </si>
-  <si>
-    <t>2021-06-02 13:29:15</t>
-  </si>
-  <si>
-    <t>武汉光谷职业学院</t>
+    <t>378529275</t>
+  </si>
+  <si>
+    <t>正气质佳人</t>
+  </si>
+  <si>
+    <t>2021-06-02 17:55:36</t>
+  </si>
+  <si>
+    <t>宜宾市长宁县职业技术学校</t>
   </si>
   <si>
     <t>307</t>
   </si>
   <si>
-    <t>398830232</t>
-  </si>
-  <si>
-    <t>Minor_寂月</t>
-  </si>
-  <si>
-    <t>2021-06-02 13:48:56</t>
-  </si>
-  <si>
-    <t>河北科技学院</t>
+    <t>436856357</t>
+  </si>
+  <si>
+    <t>爱上个傻了</t>
+  </si>
+  <si>
+    <t>2021-06-03 00:44:45</t>
   </si>
   <si>
     <t>311</t>
   </si>
   <si>
-    <t>378529275</t>
-  </si>
-  <si>
-    <t>正气质佳人</t>
-  </si>
-  <si>
-    <t>2021-06-02 17:55:36</t>
-  </si>
-  <si>
-    <t>宜宾市长宁县职业技术学校</t>
+    <t>95934271</t>
+  </si>
+  <si>
+    <t>大大大大大墨漓</t>
+  </si>
+  <si>
+    <t>2021-06-03 02:26:25</t>
+  </si>
+  <si>
+    <t>全国大部分的医学院，护理系。</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>19831716</t>
+  </si>
+  <si>
+    <t>EDG-明先生</t>
+  </si>
+  <si>
+    <t>2021-06-03 12:02:11</t>
+  </si>
+  <si>
+    <t>广西城市职业学院</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>168323048</t>
+  </si>
+  <si>
+    <t>死了放了个空大</t>
+  </si>
+  <si>
+    <t>2021-06-03 17:53:57</t>
+  </si>
+  <si>
+    <t>西安外事学院</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>527608804</t>
+  </si>
+  <si>
+    <t>芒桃菌</t>
+  </si>
+  <si>
+    <t>2021-06-05 15:11:21</t>
+  </si>
+  <si>
+    <t>开封电子科技学校</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4121,7 +4163,7 @@
         <v>242</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
         <v>243</v>
@@ -4135,33 +4177,33 @@
         <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
         <v>250</v>
       </c>
-      <c r="B52" t="s">
-        <v>246</v>
-      </c>
-      <c r="C52" t="s">
-        <v>247</v>
-      </c>
       <c r="D52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
         <v>251</v>
@@ -4201,7 +4243,7 @@
         <v>260</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
         <v>261</v>
@@ -4221,7 +4263,7 @@
         <v>265</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
         <v>266</v>
@@ -4241,7 +4283,7 @@
         <v>270</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
         <v>271</v>
@@ -4261,7 +4303,7 @@
         <v>275</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
         <v>276</v>
@@ -4321,7 +4363,7 @@
         <v>290</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
         <v>291</v>
@@ -4341,53 +4383,53 @@
         <v>295</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
         <v>296</v>
       </c>
       <c r="F61" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" t="s">
         <v>298</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>299</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
         <v>300</v>
       </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>301</v>
-      </c>
-      <c r="F62" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" t="s">
         <v>303</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>304</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
         <v>305</v>
       </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>306</v>
-      </c>
-      <c r="F63" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4401,7 +4443,7 @@
         <v>309</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
         <v>310</v>
@@ -4421,7 +4463,7 @@
         <v>314</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
         <v>315</v>
@@ -4441,7 +4483,7 @@
         <v>319</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
         <v>320</v>
@@ -4461,7 +4503,7 @@
         <v>324</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
         <v>325</v>
@@ -4541,7 +4583,7 @@
         <v>344</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
         <v>345</v>
@@ -4561,7 +4603,7 @@
         <v>349</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
         <v>350</v>
@@ -4581,7 +4623,7 @@
         <v>354</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
         <v>355</v>
@@ -4601,93 +4643,93 @@
         <v>359</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
         <v>360</v>
       </c>
       <c r="F74" t="s">
-        <v>361</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>361</v>
+      </c>
+      <c r="B75" t="s">
         <v>362</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>363</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
         <v>364</v>
       </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>365</v>
-      </c>
-      <c r="F75" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" t="s">
         <v>367</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>368</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
         <v>369</v>
       </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>370</v>
-      </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" t="s">
         <v>371</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>372</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
         <v>373</v>
       </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>374</v>
-      </c>
-      <c r="F77" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" t="s">
         <v>376</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>377</v>
-      </c>
-      <c r="C78" t="s">
-        <v>378</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
+        <v>378</v>
+      </c>
+      <c r="F78" t="s">
         <v>379</v>
-      </c>
-      <c r="F78" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4701,7 +4743,7 @@
         <v>382</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>383</v>
@@ -4741,84 +4783,84 @@
         <v>392</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
         <v>393</v>
       </c>
       <c r="F81" t="s">
-        <v>394</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
+        <v>394</v>
+      </c>
+      <c r="B82" t="s">
         <v>395</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>396</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
         <v>397</v>
       </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>398</v>
-      </c>
-      <c r="F82" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
+        <v>399</v>
+      </c>
+      <c r="B83" t="s">
+        <v>395</v>
+      </c>
+      <c r="C83" t="s">
+        <v>396</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
         <v>400</v>
       </c>
-      <c r="B83" t="s">
+      <c r="F83" t="s">
         <v>401</v>
-      </c>
-      <c r="C83" t="s">
-        <v>402</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>403</v>
-      </c>
-      <c r="F83" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
+        <v>402</v>
+      </c>
+      <c r="B84" t="s">
+        <v>403</v>
+      </c>
+      <c r="C84" t="s">
         <v>404</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
         <v>405</v>
       </c>
-      <c r="C84" t="s">
+      <c r="F84" t="s">
         <v>406</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>407</v>
-      </c>
-      <c r="F84" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
+        <v>407</v>
+      </c>
+      <c r="B85" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" t="s">
         <v>409</v>
-      </c>
-      <c r="B85" t="s">
-        <v>405</v>
-      </c>
-      <c r="C85" t="s">
-        <v>406</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -4901,7 +4943,7 @@
         <v>429</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
         <v>430</v>
@@ -4935,53 +4977,53 @@
         <v>437</v>
       </c>
       <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
         <v>438</v>
       </c>
-      <c r="C91" t="s">
+      <c r="F91" t="s">
         <v>439</v>
-      </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-      <c r="E91" t="s">
-        <v>440</v>
-      </c>
-      <c r="F91" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
+        <v>440</v>
+      </c>
+      <c r="B92" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" t="s">
         <v>442</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
         <v>443</v>
       </c>
-      <c r="C92" t="s">
+      <c r="F92" t="s">
         <v>444</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>445</v>
-      </c>
-      <c r="F92" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
+        <v>445</v>
+      </c>
+      <c r="B93" t="s">
+        <v>446</v>
+      </c>
+      <c r="C93" t="s">
         <v>447</v>
       </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" t="s">
-        <v>38</v>
-      </c>
       <c r="D93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
         <v>448</v>
@@ -5021,7 +5063,7 @@
         <v>457</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
         <v>458</v>
@@ -5061,7 +5103,7 @@
         <v>467</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
         <v>468</v>
@@ -5081,7 +5123,7 @@
         <v>472</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
         <v>473</v>
@@ -5101,53 +5143,53 @@
         <v>477</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
         <v>478</v>
       </c>
       <c r="F99" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>479</v>
+      </c>
+      <c r="B100" t="s">
         <v>480</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>481</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
         <v>482</v>
       </c>
-      <c r="D100">
-        <v>4</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>483</v>
-      </c>
-      <c r="F100" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
+        <v>484</v>
+      </c>
+      <c r="B101" t="s">
         <v>485</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>486</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
         <v>487</v>
       </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>488</v>
-      </c>
-      <c r="F101" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5155,50 +5197,50 @@
         <v>489</v>
       </c>
       <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
         <v>490</v>
       </c>
-      <c r="C102" t="s">
+      <c r="F102" t="s">
         <v>491</v>
-      </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="E102" t="s">
-        <v>492</v>
-      </c>
-      <c r="F102" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
+        <v>492</v>
+      </c>
+      <c r="B103" t="s">
+        <v>493</v>
+      </c>
+      <c r="C103" t="s">
         <v>494</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
         <v>495</v>
       </c>
-      <c r="C103" t="s">
+      <c r="F103" t="s">
         <v>496</v>
-      </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-      <c r="E103" t="s">
-        <v>497</v>
-      </c>
-      <c r="F103" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>497</v>
+      </c>
+      <c r="B104" t="s">
+        <v>498</v>
+      </c>
+      <c r="C104" t="s">
         <v>499</v>
-      </c>
-      <c r="B104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" t="s">
-        <v>18</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -5221,7 +5263,7 @@
         <v>504</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
         <v>505</v>
@@ -5255,53 +5297,53 @@
         <v>512</v>
       </c>
       <c r="B107" t="s">
+        <v>480</v>
+      </c>
+      <c r="C107" t="s">
+        <v>481</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
         <v>513</v>
       </c>
-      <c r="C107" t="s">
+      <c r="F107" t="s">
         <v>514</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" t="s">
-        <v>515</v>
-      </c>
-      <c r="F107" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
+        <v>515</v>
+      </c>
+      <c r="B108" t="s">
+        <v>516</v>
+      </c>
+      <c r="C108" t="s">
         <v>517</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
         <v>518</v>
       </c>
-      <c r="C108" t="s">
+      <c r="F108" t="s">
         <v>519</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108" t="s">
-        <v>520</v>
-      </c>
-      <c r="F108" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
+        <v>520</v>
+      </c>
+      <c r="B109" t="s">
+        <v>521</v>
+      </c>
+      <c r="C109" t="s">
         <v>522</v>
       </c>
-      <c r="B109" t="s">
-        <v>490</v>
-      </c>
-      <c r="C109" t="s">
-        <v>491</v>
-      </c>
       <c r="D109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
         <v>523</v>
@@ -5341,7 +5383,7 @@
         <v>532</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>533</v>
@@ -5367,47 +5409,47 @@
         <v>538</v>
       </c>
       <c r="F112" t="s">
-        <v>539</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
+        <v>539</v>
+      </c>
+      <c r="B113" t="s">
         <v>540</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>541</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
         <v>542</v>
       </c>
-      <c r="D113">
-        <v>3</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>543</v>
-      </c>
-      <c r="F113" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
+        <v>544</v>
+      </c>
+      <c r="B114" t="s">
         <v>545</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>546</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
         <v>547</v>
       </c>
-      <c r="D114">
-        <v>4</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>548</v>
-      </c>
-      <c r="F114" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5421,7 +5463,7 @@
         <v>551</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
         <v>552</v>
@@ -5441,7 +5483,7 @@
         <v>556</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
         <v>557</v>
@@ -5461,7 +5503,7 @@
         <v>561</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
         <v>562</v>
@@ -5481,7 +5523,7 @@
         <v>566</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
         <v>567</v>
@@ -5501,7 +5543,7 @@
         <v>571</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
         <v>572</v>
@@ -5541,53 +5583,53 @@
         <v>581</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E121" t="s">
         <v>582</v>
       </c>
       <c r="F121" t="s">
-        <v>583</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>583</v>
+      </c>
+      <c r="B122" t="s">
         <v>584</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>585</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
         <v>586</v>
       </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>587</v>
-      </c>
-      <c r="F122" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>588</v>
+      </c>
+      <c r="B123" t="s">
         <v>589</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>590</v>
-      </c>
-      <c r="C123" t="s">
-        <v>591</v>
       </c>
       <c r="D123">
         <v>4</v>
       </c>
       <c r="E123" t="s">
+        <v>591</v>
+      </c>
+      <c r="F123" t="s">
         <v>592</v>
-      </c>
-      <c r="F123" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5601,7 +5643,7 @@
         <v>595</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="s">
         <v>596</v>
@@ -5621,7 +5663,7 @@
         <v>600</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E125" t="s">
         <v>601</v>
@@ -5641,7 +5683,7 @@
         <v>605</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
         <v>606</v>
@@ -5681,7 +5723,7 @@
         <v>615</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
         <v>616</v>
@@ -5721,53 +5763,53 @@
         <v>625</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
         <v>626</v>
       </c>
       <c r="F130" t="s">
-        <v>627</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
+        <v>627</v>
+      </c>
+      <c r="B131" t="s">
         <v>628</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>629</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
         <v>630</v>
       </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>631</v>
-      </c>
-      <c r="F131" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
+        <v>632</v>
+      </c>
+      <c r="B132" t="s">
         <v>633</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>634</v>
-      </c>
-      <c r="C132" t="s">
-        <v>635</v>
       </c>
       <c r="D132">
         <v>3</v>
       </c>
       <c r="E132" t="s">
+        <v>635</v>
+      </c>
+      <c r="F132" t="s">
         <v>636</v>
-      </c>
-      <c r="F132" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5781,7 +5823,7 @@
         <v>639</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E133" t="s">
         <v>640</v>
@@ -5827,127 +5869,127 @@
         <v>650</v>
       </c>
       <c r="F135" t="s">
-        <v>651</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
+        <v>651</v>
+      </c>
+      <c r="B136" t="s">
         <v>652</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>653</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
         <v>654</v>
       </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>655</v>
-      </c>
-      <c r="F136" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
+        <v>656</v>
+      </c>
+      <c r="B137" t="s">
         <v>657</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>658</v>
-      </c>
-      <c r="C137" t="s">
-        <v>659</v>
       </c>
       <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F137" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
+        <v>660</v>
+      </c>
+      <c r="B138" t="s">
         <v>661</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>662</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
         <v>663</v>
       </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>664</v>
-      </c>
-      <c r="F138" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
+        <v>665</v>
+      </c>
+      <c r="B139" t="s">
         <v>666</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>667</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
         <v>668</v>
       </c>
-      <c r="D139">
-        <v>4</v>
-      </c>
-      <c r="E139" t="s">
-        <v>669</v>
-      </c>
       <c r="F139" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
+        <v>669</v>
+      </c>
+      <c r="B140" t="s">
         <v>670</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>671</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
         <v>672</v>
       </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>673</v>
-      </c>
-      <c r="F140" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
+        <v>674</v>
+      </c>
+      <c r="B141" t="s">
         <v>675</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>676</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
         <v>677</v>
       </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>678</v>
-      </c>
-      <c r="F141" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5955,79 +5997,79 @@
         <v>679</v>
       </c>
       <c r="B142" t="s">
+        <v>675</v>
+      </c>
+      <c r="C142" t="s">
+        <v>676</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
         <v>680</v>
       </c>
-      <c r="C142" t="s">
+      <c r="F142" t="s">
         <v>681</v>
-      </c>
-      <c r="D142">
-        <v>5</v>
-      </c>
-      <c r="E142" t="s">
-        <v>682</v>
-      </c>
-      <c r="F142" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
+        <v>682</v>
+      </c>
+      <c r="B143" t="s">
+        <v>683</v>
+      </c>
+      <c r="C143" t="s">
         <v>684</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
         <v>685</v>
       </c>
-      <c r="C143" t="s">
-        <v>686</v>
-      </c>
-      <c r="D143">
-        <v>5</v>
-      </c>
-      <c r="E143" t="s">
-        <v>687</v>
-      </c>
       <c r="F143" t="s">
-        <v>688</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
+        <v>686</v>
+      </c>
+      <c r="B144" t="s">
+        <v>687</v>
+      </c>
+      <c r="C144" t="s">
+        <v>688</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
         <v>689</v>
       </c>
-      <c r="B144" t="s">
-        <v>685</v>
-      </c>
-      <c r="C144" t="s">
-        <v>686</v>
-      </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>690</v>
-      </c>
-      <c r="F144" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
+        <v>691</v>
+      </c>
+      <c r="B145" t="s">
         <v>692</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>693</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
         <v>694</v>
       </c>
-      <c r="D145">
-        <v>3</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>695</v>
-      </c>
-      <c r="F145" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6035,50 +6077,50 @@
         <v>696</v>
       </c>
       <c r="B146" t="s">
+        <v>692</v>
+      </c>
+      <c r="C146" t="s">
+        <v>693</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146" t="s">
         <v>697</v>
       </c>
-      <c r="C146" t="s">
+      <c r="F146" t="s">
         <v>698</v>
-      </c>
-      <c r="D146">
-        <v>5</v>
-      </c>
-      <c r="E146" t="s">
-        <v>699</v>
-      </c>
-      <c r="F146" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
+        <v>699</v>
+      </c>
+      <c r="B147" t="s">
+        <v>700</v>
+      </c>
+      <c r="C147" t="s">
         <v>701</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
         <v>702</v>
       </c>
-      <c r="C147" t="s">
+      <c r="F147" t="s">
         <v>703</v>
-      </c>
-      <c r="D147">
-        <v>5</v>
-      </c>
-      <c r="E147" t="s">
-        <v>704</v>
-      </c>
-      <c r="F147" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
+        <v>704</v>
+      </c>
+      <c r="B148" t="s">
+        <v>705</v>
+      </c>
+      <c r="C148" t="s">
         <v>706</v>
-      </c>
-      <c r="B148" t="s">
-        <v>702</v>
-      </c>
-      <c r="C148" t="s">
-        <v>703</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -6101,7 +6143,7 @@
         <v>711</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
         <v>712</v>
@@ -6121,7 +6163,7 @@
         <v>716</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E150" t="s">
         <v>717</v>
@@ -6161,7 +6203,7 @@
         <v>726</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E152" t="s">
         <v>727</v>
@@ -6181,7 +6223,7 @@
         <v>731</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E153" t="s">
         <v>732</v>
@@ -6201,7 +6243,7 @@
         <v>736</v>
       </c>
       <c r="D154">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E154" t="s">
         <v>737</v>
@@ -6221,53 +6263,53 @@
         <v>741</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
         <v>742</v>
       </c>
       <c r="F155" t="s">
-        <v>743</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
+        <v>743</v>
+      </c>
+      <c r="B156" t="s">
         <v>744</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>745</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
         <v>746</v>
       </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>747</v>
-      </c>
-      <c r="F156" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
+        <v>748</v>
+      </c>
+      <c r="B157" t="s">
         <v>749</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>750</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
         <v>751</v>
       </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>752</v>
-      </c>
-      <c r="F157" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6301,7 +6343,7 @@
         <v>760</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
         <v>761</v>
@@ -6321,7 +6363,7 @@
         <v>765</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E160" t="s">
         <v>766</v>
@@ -6341,7 +6383,7 @@
         <v>770</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
         <v>771</v>
@@ -6355,70 +6397,70 @@
         <v>773</v>
       </c>
       <c r="B162" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C162" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D162">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F162" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
+        <v>776</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>777</v>
+      </c>
+      <c r="F163" t="s">
         <v>778</v>
-      </c>
-      <c r="B163" t="s">
-        <v>779</v>
-      </c>
-      <c r="C163" t="s">
-        <v>780</v>
-      </c>
-      <c r="D163">
-        <v>3</v>
-      </c>
-      <c r="E163" t="s">
-        <v>781</v>
-      </c>
-      <c r="F163" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
+        <v>779</v>
+      </c>
+      <c r="B164" t="s">
+        <v>780</v>
+      </c>
+      <c r="C164" t="s">
+        <v>781</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>782</v>
+      </c>
+      <c r="F164" t="s">
         <v>783</v>
-      </c>
-      <c r="B164" t="s">
-        <v>779</v>
-      </c>
-      <c r="C164" t="s">
-        <v>780</v>
-      </c>
-      <c r="D164">
-        <v>3</v>
-      </c>
-      <c r="E164" t="s">
-        <v>784</v>
-      </c>
-      <c r="F164" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
+        <v>784</v>
+      </c>
+      <c r="B165" t="s">
+        <v>785</v>
+      </c>
+      <c r="C165" t="s">
         <v>786</v>
-      </c>
-      <c r="B165" t="s">
-        <v>22</v>
-      </c>
-      <c r="C165" t="s">
-        <v>23</v>
       </c>
       <c r="D165">
         <v>5</v>
@@ -6427,47 +6469,47 @@
         <v>787</v>
       </c>
       <c r="F165" t="s">
-        <v>788</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
+        <v>788</v>
+      </c>
+      <c r="B166" t="s">
         <v>789</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>790</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
         <v>791</v>
       </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>792</v>
-      </c>
-      <c r="F166" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
+        <v>793</v>
+      </c>
+      <c r="B167" t="s">
         <v>794</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>795</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
         <v>796</v>
       </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>797</v>
-      </c>
-      <c r="F167" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6481,7 +6523,7 @@
         <v>800</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E168" t="s">
         <v>801</v>
@@ -6501,7 +6543,7 @@
         <v>805</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E169" t="s">
         <v>806</v>
@@ -6521,7 +6563,7 @@
         <v>810</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170" t="s">
         <v>811</v>
@@ -6541,7 +6583,7 @@
         <v>815</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E171" t="s">
         <v>816</v>
@@ -6561,7 +6603,7 @@
         <v>820</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E172" t="s">
         <v>821</v>
@@ -6581,7 +6623,7 @@
         <v>825</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
         <v>826</v>
@@ -6601,7 +6643,7 @@
         <v>830</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E174" t="s">
         <v>831</v>
@@ -6621,7 +6663,7 @@
         <v>835</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
         <v>836</v>
@@ -6641,7 +6683,7 @@
         <v>840</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
         <v>841</v>
@@ -6661,7 +6703,7 @@
         <v>845</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E177" t="s">
         <v>846</v>
@@ -6681,7 +6723,7 @@
         <v>850</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E178" t="s">
         <v>851</v>
@@ -6721,7 +6763,7 @@
         <v>860</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E180" t="s">
         <v>861</v>
@@ -6761,7 +6803,7 @@
         <v>870</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E182" t="s">
         <v>871</v>
@@ -6781,7 +6823,7 @@
         <v>875</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E183" t="s">
         <v>876</v>
@@ -6801,7 +6843,7 @@
         <v>880</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E184" t="s">
         <v>881</v>
@@ -6821,7 +6863,7 @@
         <v>885</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E185" t="s">
         <v>886</v>
@@ -6841,7 +6883,7 @@
         <v>890</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E186" t="s">
         <v>891</v>
@@ -6861,7 +6903,7 @@
         <v>895</v>
       </c>
       <c r="D187">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E187" t="s">
         <v>896</v>
@@ -6881,7 +6923,7 @@
         <v>900</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
         <v>901</v>
@@ -6901,7 +6943,7 @@
         <v>905</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E189" t="s">
         <v>906</v>
@@ -6921,7 +6963,7 @@
         <v>910</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E190" t="s">
         <v>911</v>
@@ -6941,33 +6983,93 @@
         <v>915</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E191" t="s">
         <v>916</v>
       </c>
       <c r="F191" t="s">
-        <v>917</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
+        <v>917</v>
+      </c>
+      <c r="B192" t="s">
         <v>918</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>919</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
         <v>920</v>
       </c>
-      <c r="D192">
+      <c r="F192" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>922</v>
+      </c>
+      <c r="B193" t="s">
+        <v>923</v>
+      </c>
+      <c r="C193" t="s">
+        <v>924</v>
+      </c>
+      <c r="D193">
+        <v>6</v>
+      </c>
+      <c r="E193" t="s">
+        <v>925</v>
+      </c>
+      <c r="F193" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>927</v>
+      </c>
+      <c r="B194" t="s">
+        <v>928</v>
+      </c>
+      <c r="C194" t="s">
+        <v>929</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>930</v>
+      </c>
+      <c r="F194" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>932</v>
+      </c>
+      <c r="B195" t="s">
+        <v>933</v>
+      </c>
+      <c r="C195" t="s">
+        <v>934</v>
+      </c>
+      <c r="D195">
         <v>4</v>
       </c>
-      <c r="E192" t="s">
-        <v>921</v>
-      </c>
-      <c r="F192" t="s">
-        <v>922</v>
+      <c r="E195" t="s">
+        <v>935</v>
+      </c>
+      <c r="F195" t="s">
+        <v>936</v>
       </c>
     </row>
   </sheetData>
